--- a/source_data/Qual_3_data.xlsx
+++ b/source_data/Qual_3_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6525F2-8C62-47A7-9491-213B44D4381C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0B5595-6823-49BA-9825-E80D72C3321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 - Length of maternity leave_d" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 - Length of maternity leave_d'!$D$1:$Q$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 - Length of maternity leave_d'!$A$1:$S$186</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="571">
   <si>
     <t>ISO3</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TIME_PERIOD</t>
   </si>
 </sst>
 </file>
@@ -2591,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,16 +2611,17 @@
     <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>564</v>
       </c>
@@ -2651,29 +2655,32 @@
       <c r="K1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
       <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>562</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>56</v>
       </c>
@@ -2707,29 +2714,32 @@
       <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M2" s="2">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="R2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>56</v>
       </c>
@@ -2763,29 +2773,32 @@
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="2">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="R3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>56</v>
       </c>
@@ -2819,26 +2832,29 @@
       <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M4" s="2">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56</v>
       </c>
@@ -2872,29 +2888,32 @@
       <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M5" s="2">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
         <v>22</v>
       </c>
-      <c r="R5">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56</v>
       </c>
@@ -2928,29 +2947,32 @@
       <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="2">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M6" s="2">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16</v>
       </c>
-      <c r="O6" t="s">
-        <v>10</v>
-      </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
         <v>25</v>
       </c>
-      <c r="R6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>56</v>
       </c>
@@ -2984,29 +3006,32 @@
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M7" s="2">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
       <c r="P7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
         <v>28</v>
       </c>
-      <c r="R7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56</v>
       </c>
@@ -3040,29 +3065,32 @@
       <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2">
-        <v>13</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M8" s="2">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
       <c r="P8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="R8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -3096,29 +3124,32 @@
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="2">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M9" s="2">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" t="s">
         <v>34</v>
       </c>
-      <c r="R9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56</v>
       </c>
@@ -3152,29 +3183,32 @@
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
-        <v>10</v>
-      </c>
       <c r="P10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
         <v>37</v>
       </c>
-      <c r="R10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>56</v>
       </c>
@@ -3208,29 +3242,32 @@
       <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="2">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M11" s="2">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>17</v>
       </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
       <c r="P11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="R11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>56</v>
       </c>
@@ -3264,29 +3301,32 @@
       <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="2">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M12" s="2">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>59</v>
       </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
       <c r="P12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
         <v>43</v>
       </c>
-      <c r="R12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56</v>
       </c>
@@ -3320,29 +3360,32 @@
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="2">
-        <v>13</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M13" s="2">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
       <c r="P13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
         <v>47</v>
       </c>
-      <c r="R13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
@@ -3376,29 +3419,32 @@
       <c r="K14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="2">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M14" s="2">
+        <v>13</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>28</v>
       </c>
-      <c r="O14" t="s">
-        <v>10</v>
-      </c>
       <c r="P14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
         <v>50</v>
       </c>
-      <c r="R14">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56</v>
       </c>
@@ -3432,29 +3478,32 @@
       <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="2">
-        <v>13</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M15" s="2">
+        <v>13</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
       <c r="P15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
         <v>53</v>
       </c>
-      <c r="R15">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>56</v>
       </c>
@@ -3488,29 +3537,32 @@
       <c r="K16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="2">
-        <v>13</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
       <c r="P16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
@@ -3544,29 +3596,32 @@
       <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="2">
-        <v>13</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M17" s="2">
+        <v>13</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>15</v>
       </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
       <c r="P17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" t="s">
         <v>59</v>
       </c>
-      <c r="R17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -3600,29 +3655,32 @@
       <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="2">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M18" s="2">
+        <v>13</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>16</v>
       </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
       <c r="P18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" t="s">
         <v>62</v>
       </c>
-      <c r="R18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>56</v>
       </c>
@@ -3656,29 +3714,32 @@
       <c r="K19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="2">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M19" s="2">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
       <c r="P19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" t="s">
         <v>65</v>
       </c>
-      <c r="R19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>56</v>
       </c>
@@ -3712,29 +3773,32 @@
       <c r="K20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="2">
-        <v>13</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M20" s="2">
+        <v>13</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>17</v>
       </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
       <c r="P20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" t="s">
         <v>68</v>
       </c>
-      <c r="R20">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>56</v>
       </c>
@@ -3768,29 +3832,32 @@
       <c r="K21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="2">
-        <v>13</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M21" s="2">
+        <v>13</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>24</v>
       </c>
-      <c r="O21" t="s">
-        <v>10</v>
-      </c>
       <c r="P21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" t="s">
         <v>71</v>
       </c>
-      <c r="R21">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>56</v>
       </c>
@@ -3824,29 +3891,32 @@
       <c r="K22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="2">
-        <v>13</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>26</v>
       </c>
-      <c r="O22" t="s">
-        <v>10</v>
-      </c>
       <c r="P22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" t="s">
         <v>74</v>
       </c>
-      <c r="R22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>56</v>
       </c>
@@ -3880,29 +3950,32 @@
       <c r="K23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="2">
-        <v>13</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M23" s="2">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>14</v>
       </c>
-      <c r="O23" t="s">
-        <v>10</v>
-      </c>
       <c r="P23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
         <v>77</v>
       </c>
-      <c r="R23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>56</v>
       </c>
@@ -3936,29 +4009,32 @@
       <c r="K24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="2">
-        <v>13</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M24" s="2">
+        <v>13</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>22</v>
       </c>
-      <c r="O24" t="s">
-        <v>10</v>
-      </c>
       <c r="P24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" t="s">
         <v>80</v>
       </c>
-      <c r="R24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>56</v>
       </c>
@@ -3992,29 +4068,32 @@
       <c r="K25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="2">
-        <v>13</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M25" s="2">
+        <v>13</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>14</v>
       </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
       <c r="P25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" t="s">
         <v>84</v>
       </c>
-      <c r="R25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>56</v>
       </c>
@@ -4048,29 +4127,32 @@
       <c r="K26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="2">
-        <v>13</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M26" s="2">
+        <v>13</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>16</v>
       </c>
-      <c r="O26" t="s">
-        <v>10</v>
-      </c>
       <c r="P26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" t="s">
         <v>87</v>
       </c>
-      <c r="R26">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>56</v>
       </c>
@@ -4104,29 +4186,32 @@
       <c r="K27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="2">
-        <v>13</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M27" s="2">
+        <v>13</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>18</v>
       </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
       <c r="P27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" t="s">
         <v>90</v>
       </c>
-      <c r="R27">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
@@ -4160,29 +4245,32 @@
       <c r="K28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="2">
-        <v>13</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M28" s="2">
+        <v>13</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>16</v>
       </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
       <c r="P28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" t="s">
         <v>93</v>
       </c>
-      <c r="R28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>56</v>
       </c>
@@ -4216,29 +4304,32 @@
       <c r="K29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="2">
-        <v>13</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="L29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M29" s="2">
+        <v>13</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>14</v>
       </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
       <c r="P29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" t="s">
         <v>96</v>
       </c>
-      <c r="R29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -4272,26 +4363,29 @@
       <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="2">
-        <v>13</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="2">
+        <v>13</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>16</v>
       </c>
-      <c r="O30" t="s">
-        <v>10</v>
-      </c>
       <c r="P30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -4325,29 +4419,32 @@
       <c r="K31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="2">
-        <v>13</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M31" s="2">
+        <v>13</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>18</v>
       </c>
-      <c r="O31" t="s">
-        <v>10</v>
-      </c>
       <c r="P31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" t="s">
         <v>101</v>
       </c>
-      <c r="R31">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>56</v>
       </c>
@@ -4381,26 +4478,29 @@
       <c r="K32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="2">
-        <v>13</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M32" s="2">
+        <v>13</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>52</v>
       </c>
-      <c r="O32" t="s">
-        <v>10</v>
-      </c>
       <c r="P32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>56</v>
       </c>
@@ -4434,29 +4534,32 @@
       <c r="K33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="2">
-        <v>13</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="L33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M33" s="2">
+        <v>13</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>16</v>
       </c>
-      <c r="O33" t="s">
-        <v>10</v>
-      </c>
       <c r="P33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" t="s">
         <v>106</v>
       </c>
-      <c r="R33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>56</v>
       </c>
@@ -4490,29 +4593,32 @@
       <c r="K34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="2">
-        <v>13</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M34" s="2">
+        <v>13</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>14</v>
       </c>
-      <c r="O34" t="s">
-        <v>10</v>
-      </c>
       <c r="P34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" t="s">
         <v>109</v>
       </c>
-      <c r="R34">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -4546,29 +4652,32 @@
       <c r="K35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="2">
-        <v>13</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="L35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="2">
+        <v>13</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>18</v>
       </c>
-      <c r="O35" t="s">
-        <v>10</v>
-      </c>
       <c r="P35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
         <v>112</v>
       </c>
-      <c r="R35">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>56</v>
       </c>
@@ -4602,29 +4711,32 @@
       <c r="K36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="2">
-        <v>13</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="2">
+        <v>13</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>20</v>
       </c>
-      <c r="O36" t="s">
-        <v>10</v>
-      </c>
       <c r="P36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" t="s">
         <v>115</v>
       </c>
-      <c r="R36">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>56</v>
       </c>
@@ -4658,29 +4770,32 @@
       <c r="K37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="2">
-        <v>13</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="L37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M37" s="2">
+        <v>13</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>17</v>
       </c>
-      <c r="O37" t="s">
-        <v>10</v>
-      </c>
       <c r="P37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" t="s">
         <v>118</v>
       </c>
-      <c r="R37">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>56</v>
       </c>
@@ -4714,29 +4829,32 @@
       <c r="K38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="2">
-        <v>13</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M38" s="2">
+        <v>13</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>18</v>
       </c>
-      <c r="O38" t="s">
-        <v>10</v>
-      </c>
       <c r="P38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" t="s">
         <v>121</v>
       </c>
-      <c r="R38">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>56</v>
       </c>
@@ -4770,29 +4888,32 @@
       <c r="K39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="2">
-        <v>13</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="L39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M39" s="2">
+        <v>13</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>20</v>
       </c>
-      <c r="O39" t="s">
-        <v>10</v>
-      </c>
       <c r="P39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" t="s">
         <v>124</v>
       </c>
-      <c r="R39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>56</v>
       </c>
@@ -4826,29 +4947,32 @@
       <c r="K40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="2">
-        <v>13</v>
-      </c>
-      <c r="M40" s="2" t="s">
+      <c r="L40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M40" s="2">
+        <v>13</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>22</v>
       </c>
-      <c r="O40" t="s">
-        <v>10</v>
-      </c>
       <c r="P40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" t="s">
         <v>127</v>
       </c>
-      <c r="R40">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>56</v>
       </c>
@@ -4882,29 +5006,32 @@
       <c r="K41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="2">
-        <v>13</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="2">
+        <v>13</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>52</v>
       </c>
-      <c r="O41" t="s">
-        <v>10</v>
-      </c>
       <c r="P41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" t="s">
         <v>130</v>
       </c>
-      <c r="R41">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -4938,29 +5065,32 @@
       <c r="K42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="2">
-        <v>13</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="L42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M42" s="2">
+        <v>13</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>28</v>
       </c>
-      <c r="O42" t="s">
-        <v>10</v>
-      </c>
       <c r="P42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" t="s">
         <v>133</v>
       </c>
-      <c r="R42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>56</v>
       </c>
@@ -4994,29 +5124,32 @@
       <c r="K43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L43" s="2">
-        <v>13</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="L43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M43" s="2">
+        <v>13</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>15</v>
       </c>
-      <c r="O43" t="s">
-        <v>10</v>
-      </c>
       <c r="P43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q43" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" t="s">
         <v>136</v>
       </c>
-      <c r="R43">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>56</v>
       </c>
@@ -5050,29 +5183,32 @@
       <c r="K44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="2">
-        <v>13</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M44" s="2">
+        <v>13</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>16</v>
       </c>
-      <c r="O44" t="s">
-        <v>10</v>
-      </c>
       <c r="P44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" t="s">
         <v>139</v>
       </c>
-      <c r="R44">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -5106,29 +5242,32 @@
       <c r="K45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="2">
-        <v>13</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="L45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M45" s="2">
+        <v>13</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>14</v>
       </c>
-      <c r="O45" t="s">
-        <v>10</v>
-      </c>
       <c r="P45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" t="s">
         <v>142</v>
       </c>
-      <c r="R45">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56</v>
       </c>
@@ -5162,29 +5301,32 @@
       <c r="K46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="2">
-        <v>13</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="L46" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M46" s="2">
+        <v>13</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>14</v>
       </c>
-      <c r="O46" t="s">
-        <v>10</v>
-      </c>
       <c r="P46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" t="s">
         <v>145</v>
       </c>
-      <c r="R46">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>56</v>
       </c>
@@ -5218,29 +5360,32 @@
       <c r="K47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="2">
-        <v>13</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="L47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M47" s="2">
+        <v>13</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>18</v>
       </c>
-      <c r="O47" t="s">
-        <v>10</v>
-      </c>
       <c r="P47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q47" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" t="s">
         <v>148</v>
       </c>
-      <c r="R47">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -5274,26 +5419,29 @@
       <c r="K48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="2">
-        <v>13</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M48" s="2">
+        <v>13</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>39</v>
       </c>
-      <c r="O48" t="s">
-        <v>10</v>
-      </c>
       <c r="P48" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>11</v>
+      </c>
+      <c r="S48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>56</v>
       </c>
@@ -5327,29 +5475,32 @@
       <c r="K49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="2">
-        <v>13</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="L49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M49" s="2">
+        <v>13</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>52</v>
       </c>
-      <c r="O49" t="s">
-        <v>10</v>
-      </c>
       <c r="P49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R49" t="s">
         <v>153</v>
       </c>
-      <c r="R49">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>56</v>
       </c>
@@ -5383,26 +5534,29 @@
       <c r="K50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="2">
-        <v>13</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="L50" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M50" s="2">
+        <v>13</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>18</v>
       </c>
-      <c r="O50" t="s">
-        <v>10</v>
-      </c>
       <c r="P50" t="s">
-        <v>11</v>
-      </c>
-      <c r="R50">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>11</v>
+      </c>
+      <c r="S50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -5436,26 +5590,29 @@
       <c r="K51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="2">
-        <v>13</v>
-      </c>
-      <c r="M51" s="2" t="s">
+      <c r="L51" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M51" s="2">
+        <v>13</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>18</v>
       </c>
-      <c r="O51" t="s">
-        <v>10</v>
-      </c>
       <c r="P51" t="s">
-        <v>11</v>
-      </c>
-      <c r="R51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
@@ -5489,26 +5646,29 @@
       <c r="K52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="2">
-        <v>13</v>
-      </c>
-      <c r="M52" s="2" t="s">
+      <c r="L52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M52" s="2">
+        <v>13</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>26</v>
       </c>
-      <c r="O52" t="s">
-        <v>10</v>
-      </c>
       <c r="P52" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -5542,29 +5702,32 @@
       <c r="K53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L53" s="2">
-        <v>13</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M53" s="2">
+        <v>13</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>14</v>
       </c>
-      <c r="O53" t="s">
-        <v>10</v>
-      </c>
       <c r="P53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="s">
+        <v>11</v>
+      </c>
+      <c r="R53" t="s">
         <v>162</v>
       </c>
-      <c r="R53">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -5598,29 +5761,32 @@
       <c r="K54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L54" s="2">
-        <v>13</v>
-      </c>
-      <c r="M54" s="2" t="s">
+      <c r="L54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M54" s="2">
+        <v>13</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>14</v>
       </c>
-      <c r="O54" t="s">
-        <v>10</v>
-      </c>
       <c r="P54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q54" t="s">
+        <v>11</v>
+      </c>
+      <c r="R54" t="s">
         <v>165</v>
       </c>
-      <c r="R54">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
@@ -5654,29 +5820,32 @@
       <c r="K55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="2">
-        <v>13</v>
-      </c>
-      <c r="M55" s="2" t="s">
+      <c r="L55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M55" s="2">
+        <v>13</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>14</v>
       </c>
-      <c r="O55" t="s">
-        <v>10</v>
-      </c>
       <c r="P55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q55" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" t="s">
         <v>168</v>
       </c>
-      <c r="R55">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5710,29 +5879,32 @@
       <c r="K56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L56" s="2">
-        <v>13</v>
-      </c>
-      <c r="M56" s="2" t="s">
+      <c r="L56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="2">
+        <v>13</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>14</v>
       </c>
-      <c r="O56" t="s">
-        <v>10</v>
-      </c>
       <c r="P56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="s">
+        <v>11</v>
+      </c>
+      <c r="R56" t="s">
         <v>172</v>
       </c>
-      <c r="R56">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5766,29 +5938,32 @@
       <c r="K57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L57" s="2">
-        <v>13</v>
-      </c>
-      <c r="M57" s="2" t="s">
+      <c r="L57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M57" s="2">
+        <v>13</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>14</v>
       </c>
-      <c r="O57" t="s">
-        <v>10</v>
-      </c>
       <c r="P57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q57" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" t="s">
         <v>175</v>
       </c>
-      <c r="R57">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5822,29 +5997,32 @@
       <c r="K58" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L58" s="2">
-        <v>13</v>
-      </c>
-      <c r="M58" s="2" t="s">
+      <c r="L58" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M58" s="2">
+        <v>13</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>14</v>
       </c>
-      <c r="O58" t="s">
-        <v>10</v>
-      </c>
       <c r="P58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q58" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" t="s">
         <v>178</v>
       </c>
-      <c r="R58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -5878,29 +6056,32 @@
       <c r="K59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L59" s="2">
-        <v>13</v>
-      </c>
-      <c r="M59" s="2" t="s">
+      <c r="L59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M59" s="2">
+        <v>13</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>14</v>
       </c>
-      <c r="O59" t="s">
-        <v>10</v>
-      </c>
       <c r="P59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q59" t="s">
+        <v>11</v>
+      </c>
+      <c r="R59" t="s">
         <v>181</v>
       </c>
-      <c r="R59">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -5934,29 +6115,32 @@
       <c r="K60" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L60" s="2">
-        <v>13</v>
-      </c>
-      <c r="M60" s="2" t="s">
+      <c r="L60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M60" s="2">
+        <v>13</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>15</v>
       </c>
-      <c r="O60" t="s">
-        <v>10</v>
-      </c>
       <c r="P60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q60" t="s">
+        <v>11</v>
+      </c>
+      <c r="R60" t="s">
         <v>184</v>
       </c>
-      <c r="R60">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -5990,29 +6174,32 @@
       <c r="K61" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L61" s="2">
-        <v>13</v>
-      </c>
-      <c r="M61" s="2" t="s">
+      <c r="L61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M61" s="2">
+        <v>13</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>14</v>
       </c>
-      <c r="O61" t="s">
-        <v>10</v>
-      </c>
       <c r="P61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="s">
+        <v>11</v>
+      </c>
+      <c r="R61" t="s">
         <v>187</v>
       </c>
-      <c r="R61">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>56</v>
       </c>
@@ -6046,29 +6233,32 @@
       <c r="K62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L62" s="2">
-        <v>13</v>
-      </c>
-      <c r="M62" s="2" t="s">
+      <c r="L62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M62" s="2">
+        <v>13</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>14</v>
       </c>
-      <c r="O62" t="s">
-        <v>10</v>
-      </c>
       <c r="P62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q62" t="s">
+        <v>11</v>
+      </c>
+      <c r="R62" t="s">
         <v>190</v>
       </c>
-      <c r="R62">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
@@ -6102,29 +6292,32 @@
       <c r="K63" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L63" s="2">
-        <v>13</v>
-      </c>
-      <c r="M63" s="2" t="s">
+      <c r="L63" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M63" s="2">
+        <v>13</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>14</v>
       </c>
-      <c r="O63" t="s">
-        <v>10</v>
-      </c>
       <c r="P63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q63" t="s">
+        <v>11</v>
+      </c>
+      <c r="R63" t="s">
         <v>193</v>
       </c>
-      <c r="R63">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
@@ -6158,29 +6351,32 @@
       <c r="K64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L64" s="2">
-        <v>13</v>
-      </c>
-      <c r="M64" s="2" t="s">
+      <c r="L64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M64" s="2">
+        <v>13</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>14</v>
       </c>
-      <c r="O64" t="s">
-        <v>10</v>
-      </c>
       <c r="P64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q64" t="s">
+        <v>11</v>
+      </c>
+      <c r="R64" t="s">
         <v>196</v>
       </c>
-      <c r="R64">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>56</v>
       </c>
@@ -6214,29 +6410,32 @@
       <c r="K65" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L65" s="2">
-        <v>13</v>
-      </c>
-      <c r="M65" s="2" t="s">
+      <c r="L65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M65" s="2">
+        <v>13</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>14</v>
       </c>
-      <c r="O65" t="s">
-        <v>10</v>
-      </c>
       <c r="P65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q65" t="s">
+        <v>11</v>
+      </c>
+      <c r="R65" t="s">
         <v>199</v>
       </c>
-      <c r="R65">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -6270,29 +6469,32 @@
       <c r="K66" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L66" s="2">
-        <v>13</v>
-      </c>
-      <c r="M66" s="2" t="s">
+      <c r="L66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M66" s="2">
+        <v>13</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>14</v>
       </c>
-      <c r="O66" t="s">
-        <v>10</v>
-      </c>
       <c r="P66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q66" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66" t="s">
         <v>202</v>
       </c>
-      <c r="R66">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>56</v>
       </c>
@@ -6326,29 +6528,32 @@
       <c r="K67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L67" s="2">
-        <v>13</v>
-      </c>
-      <c r="M67" s="2" t="s">
+      <c r="L67" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M67" s="2">
+        <v>13</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>14</v>
       </c>
-      <c r="O67" t="s">
-        <v>10</v>
-      </c>
       <c r="P67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q67" t="s">
+        <v>11</v>
+      </c>
+      <c r="R67" t="s">
         <v>205</v>
       </c>
-      <c r="R67">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>56</v>
       </c>
@@ -6382,29 +6587,32 @@
       <c r="K68" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L68" s="2">
-        <v>13</v>
-      </c>
-      <c r="M68" s="2" t="s">
+      <c r="L68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M68" s="2">
+        <v>13</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>14</v>
       </c>
-      <c r="O68" t="s">
-        <v>10</v>
-      </c>
       <c r="P68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q68" t="s">
+        <v>11</v>
+      </c>
+      <c r="R68" t="s">
         <v>208</v>
       </c>
-      <c r="R68">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>56</v>
       </c>
@@ -6438,29 +6646,32 @@
       <c r="K69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L69" s="2">
-        <v>13</v>
-      </c>
-      <c r="M69" s="2" t="s">
+      <c r="L69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M69" s="2">
+        <v>13</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>14</v>
       </c>
-      <c r="O69" t="s">
-        <v>10</v>
-      </c>
       <c r="P69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="s">
+        <v>11</v>
+      </c>
+      <c r="R69" t="s">
         <v>211</v>
       </c>
-      <c r="R69">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>56</v>
       </c>
@@ -6494,29 +6705,32 @@
       <c r="K70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L70" s="2">
-        <v>13</v>
-      </c>
-      <c r="M70" s="2" t="s">
+      <c r="L70" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M70" s="2">
+        <v>13</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>14</v>
       </c>
-      <c r="O70" t="s">
-        <v>10</v>
-      </c>
       <c r="P70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R70" t="s">
         <v>214</v>
       </c>
-      <c r="R70">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>56</v>
       </c>
@@ -6550,29 +6764,32 @@
       <c r="K71" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L71" s="2">
-        <v>13</v>
-      </c>
-      <c r="M71" s="2" t="s">
+      <c r="L71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M71" s="2">
+        <v>13</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>14</v>
       </c>
-      <c r="O71" t="s">
-        <v>10</v>
-      </c>
       <c r="P71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R71" t="s">
         <v>217</v>
       </c>
-      <c r="R71">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6606,29 +6823,32 @@
       <c r="K72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L72" s="2">
-        <v>13</v>
-      </c>
-      <c r="M72" s="2" t="s">
+      <c r="L72" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M72" s="2">
+        <v>13</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>14</v>
       </c>
-      <c r="O72" t="s">
-        <v>10</v>
-      </c>
       <c r="P72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q72" t="s">
+        <v>11</v>
+      </c>
+      <c r="R72" t="s">
         <v>220</v>
       </c>
-      <c r="R72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>56</v>
       </c>
@@ -6662,29 +6882,32 @@
       <c r="K73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L73" s="2">
-        <v>13</v>
-      </c>
-      <c r="M73" s="2" t="s">
+      <c r="L73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M73" s="2">
+        <v>13</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>14</v>
       </c>
-      <c r="O73" t="s">
-        <v>10</v>
-      </c>
       <c r="P73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q73" t="s">
+        <v>11</v>
+      </c>
+      <c r="R73" t="s">
         <v>223</v>
       </c>
-      <c r="R73">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>56</v>
       </c>
@@ -6718,29 +6941,32 @@
       <c r="K74" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L74" s="2">
-        <v>13</v>
-      </c>
-      <c r="M74" s="2" t="s">
+      <c r="L74" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M74" s="2">
+        <v>13</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>17</v>
       </c>
-      <c r="O74" t="s">
-        <v>10</v>
-      </c>
       <c r="P74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q74" t="s">
+        <v>11</v>
+      </c>
+      <c r="R74" t="s">
         <v>226</v>
       </c>
-      <c r="R74">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>56</v>
       </c>
@@ -6774,29 +7000,32 @@
       <c r="K75" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L75" s="2">
-        <v>13</v>
-      </c>
-      <c r="M75" s="2" t="s">
+      <c r="L75" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M75" s="2">
+        <v>13</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>14</v>
       </c>
-      <c r="O75" t="s">
-        <v>10</v>
-      </c>
       <c r="P75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q75" t="s">
+        <v>11</v>
+      </c>
+      <c r="R75" t="s">
         <v>229</v>
       </c>
-      <c r="R75">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>56</v>
       </c>
@@ -6830,29 +7059,32 @@
       <c r="K76" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L76" s="2">
-        <v>13</v>
-      </c>
-      <c r="M76" s="2" t="s">
+      <c r="L76" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M76" s="2">
+        <v>13</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>14</v>
       </c>
-      <c r="O76" t="s">
-        <v>10</v>
-      </c>
       <c r="P76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q76" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76" t="s">
         <v>232</v>
       </c>
-      <c r="R76">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>56</v>
       </c>
@@ -6886,29 +7118,32 @@
       <c r="K77" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L77" s="2">
-        <v>13</v>
-      </c>
-      <c r="M77" s="2" t="s">
+      <c r="L77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M77" s="2">
+        <v>13</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>14</v>
       </c>
-      <c r="O77" t="s">
-        <v>10</v>
-      </c>
       <c r="P77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q77" t="s">
+        <v>11</v>
+      </c>
+      <c r="R77" t="s">
         <v>235</v>
       </c>
-      <c r="R77">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>56</v>
       </c>
@@ -6942,29 +7177,32 @@
       <c r="K78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L78" s="2">
-        <v>13</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="L78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M78" s="2">
+        <v>13</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>17</v>
       </c>
-      <c r="O78" t="s">
-        <v>10</v>
-      </c>
       <c r="P78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q78" t="s">
+        <v>11</v>
+      </c>
+      <c r="R78" t="s">
         <v>239</v>
       </c>
-      <c r="R78">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>56</v>
       </c>
@@ -6998,29 +7236,32 @@
       <c r="K79" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L79" s="2">
-        <v>13</v>
-      </c>
-      <c r="M79" s="2" t="s">
+      <c r="L79" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M79" s="2">
+        <v>13</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>14</v>
       </c>
-      <c r="O79" t="s">
-        <v>10</v>
-      </c>
       <c r="P79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R79" t="s">
         <v>242</v>
       </c>
-      <c r="R79">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>56</v>
       </c>
@@ -7054,29 +7295,32 @@
       <c r="K80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L80" s="2">
-        <v>13</v>
-      </c>
-      <c r="M80" s="2" t="s">
+      <c r="L80" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M80" s="2">
+        <v>13</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>18</v>
       </c>
-      <c r="O80" t="s">
-        <v>10</v>
-      </c>
       <c r="P80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" t="s">
         <v>245</v>
       </c>
-      <c r="R80">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>56</v>
       </c>
@@ -7110,29 +7354,32 @@
       <c r="K81" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L81" s="2">
-        <v>13</v>
-      </c>
-      <c r="M81" s="2" t="s">
+      <c r="L81" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M81" s="2">
+        <v>13</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>14</v>
       </c>
-      <c r="O81" t="s">
-        <v>10</v>
-      </c>
       <c r="P81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q81" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81" t="s">
         <v>248</v>
       </c>
-      <c r="R81">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>56</v>
       </c>
@@ -7166,29 +7413,32 @@
       <c r="K82" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L82" s="2">
-        <v>13</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="L82" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M82" s="2">
+        <v>13</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>17</v>
       </c>
-      <c r="O82" t="s">
-        <v>10</v>
-      </c>
       <c r="P82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="s">
+        <v>11</v>
+      </c>
+      <c r="R82" t="s">
         <v>251</v>
       </c>
-      <c r="R82">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>56</v>
       </c>
@@ -7222,29 +7472,32 @@
       <c r="K83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L83" s="2">
-        <v>13</v>
-      </c>
-      <c r="M83" s="2" t="s">
+      <c r="L83" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M83" s="2">
+        <v>13</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>18</v>
       </c>
-      <c r="O83" t="s">
-        <v>10</v>
-      </c>
       <c r="P83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q83" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" t="s">
         <v>254</v>
       </c>
-      <c r="R83">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>56</v>
       </c>
@@ -7278,29 +7531,32 @@
       <c r="K84" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L84" s="2">
-        <v>13</v>
-      </c>
-      <c r="M84" s="2" t="s">
+      <c r="L84" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M84" s="2">
+        <v>13</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>14</v>
       </c>
-      <c r="O84" t="s">
-        <v>10</v>
-      </c>
       <c r="P84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q84" t="s">
+        <v>11</v>
+      </c>
+      <c r="R84" t="s">
         <v>257</v>
       </c>
-      <c r="R84">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>56</v>
       </c>
@@ -7334,29 +7590,32 @@
       <c r="K85" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L85" s="2">
-        <v>13</v>
-      </c>
-      <c r="M85" s="2" t="s">
+      <c r="L85" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M85" s="2">
+        <v>13</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>26</v>
       </c>
-      <c r="O85" t="s">
-        <v>10</v>
-      </c>
       <c r="P85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q85" t="s">
+        <v>11</v>
+      </c>
+      <c r="R85" t="s">
         <v>260</v>
       </c>
-      <c r="R85">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>56</v>
       </c>
@@ -7390,29 +7649,32 @@
       <c r="K86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L86" s="2">
-        <v>13</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="L86" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M86" s="2">
+        <v>13</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>18</v>
       </c>
-      <c r="O86" t="s">
-        <v>10</v>
-      </c>
       <c r="P86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q86" t="s">
+        <v>11</v>
+      </c>
+      <c r="R86" t="s">
         <v>263</v>
       </c>
-      <c r="R86">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
@@ -7446,29 +7708,32 @@
       <c r="K87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L87" s="2">
-        <v>13</v>
-      </c>
-      <c r="M87" s="2" t="s">
+      <c r="L87" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M87" s="2">
+        <v>13</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>20</v>
       </c>
-      <c r="O87" t="s">
-        <v>10</v>
-      </c>
       <c r="P87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q87" t="s">
+        <v>11</v>
+      </c>
+      <c r="R87" t="s">
         <v>266</v>
       </c>
-      <c r="R87">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>56</v>
       </c>
@@ -7502,26 +7767,29 @@
       <c r="K88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L88" s="2">
-        <v>13</v>
-      </c>
-      <c r="M88" s="2" t="s">
+      <c r="L88" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M88" s="2">
+        <v>13</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>18</v>
       </c>
-      <c r="O88" t="s">
-        <v>10</v>
-      </c>
       <c r="P88" t="s">
-        <v>11</v>
-      </c>
-      <c r="R88">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>11</v>
+      </c>
+      <c r="S88">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
@@ -7555,29 +7823,32 @@
       <c r="K89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L89" s="2">
-        <v>13</v>
-      </c>
-      <c r="M89" s="2" t="s">
+      <c r="L89" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M89" s="2">
+        <v>13</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>18</v>
       </c>
-      <c r="O89" t="s">
-        <v>10</v>
-      </c>
       <c r="P89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q89" t="s">
+        <v>11</v>
+      </c>
+      <c r="R89" t="s">
         <v>271</v>
       </c>
-      <c r="R89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -7611,29 +7882,32 @@
       <c r="K90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L90" s="2">
-        <v>13</v>
-      </c>
-      <c r="M90" s="2" t="s">
+      <c r="L90" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M90" s="2">
+        <v>13</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>18</v>
       </c>
-      <c r="O90" t="s">
-        <v>10</v>
-      </c>
       <c r="P90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q90" t="s">
+        <v>11</v>
+      </c>
+      <c r="R90" t="s">
         <v>274</v>
       </c>
-      <c r="R90">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>56</v>
       </c>
@@ -7667,29 +7941,32 @@
       <c r="K91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L91" s="2">
-        <v>13</v>
-      </c>
-      <c r="M91" s="2" t="s">
+      <c r="L91" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M91" s="2">
+        <v>13</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>20</v>
       </c>
-      <c r="O91" t="s">
-        <v>10</v>
-      </c>
       <c r="P91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q91" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" t="s">
         <v>277</v>
       </c>
-      <c r="R91">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>56</v>
       </c>
@@ -7723,26 +8000,29 @@
       <c r="K92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L92" s="2">
-        <v>13</v>
-      </c>
-      <c r="M92" s="2" t="s">
+      <c r="L92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M92" s="2">
+        <v>13</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>16</v>
       </c>
-      <c r="O92" t="s">
-        <v>10</v>
-      </c>
       <c r="P92" t="s">
-        <v>11</v>
-      </c>
-      <c r="R92">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>11</v>
+      </c>
+      <c r="S92">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7776,29 +8056,32 @@
       <c r="K93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L93" s="2">
-        <v>13</v>
-      </c>
-      <c r="M93" s="2" t="s">
+      <c r="L93" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M93" s="2">
+        <v>13</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>18</v>
       </c>
-      <c r="O93" t="s">
-        <v>10</v>
-      </c>
       <c r="P93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q93" t="s">
+        <v>11</v>
+      </c>
+      <c r="R93" t="s">
         <v>282</v>
       </c>
-      <c r="R93">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>56</v>
       </c>
@@ -7832,29 +8115,32 @@
       <c r="K94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L94" s="2">
-        <v>13</v>
-      </c>
-      <c r="M94" s="2" t="s">
+      <c r="L94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M94" s="2">
+        <v>13</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>14</v>
       </c>
-      <c r="O94" t="s">
-        <v>10</v>
-      </c>
       <c r="P94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q94" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94" t="s">
         <v>285</v>
       </c>
-      <c r="R94">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>56</v>
       </c>
@@ -7888,29 +8174,32 @@
       <c r="K95" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L95" s="2">
-        <v>13</v>
-      </c>
-      <c r="M95" s="2" t="s">
+      <c r="L95" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M95" s="2">
+        <v>13</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>16</v>
       </c>
-      <c r="O95" t="s">
-        <v>10</v>
-      </c>
       <c r="P95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q95" t="s">
+        <v>11</v>
+      </c>
+      <c r="R95" t="s">
         <v>288</v>
       </c>
-      <c r="R95">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>56</v>
       </c>
@@ -7944,29 +8233,32 @@
       <c r="K96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L96" s="2">
-        <v>13</v>
-      </c>
-      <c r="M96" s="2" t="s">
+      <c r="L96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M96" s="2">
+        <v>13</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>16</v>
       </c>
-      <c r="O96" t="s">
-        <v>10</v>
-      </c>
       <c r="P96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q96" t="s">
+        <v>11</v>
+      </c>
+      <c r="R96" t="s">
         <v>291</v>
       </c>
-      <c r="R96">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>56</v>
       </c>
@@ -8000,29 +8292,32 @@
       <c r="K97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L97" s="2">
-        <v>13</v>
-      </c>
-      <c r="M97" s="2" t="s">
+      <c r="L97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M97" s="2">
+        <v>13</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>17</v>
       </c>
-      <c r="O97" t="s">
-        <v>10</v>
-      </c>
       <c r="P97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q97" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" t="s">
         <v>294</v>
       </c>
-      <c r="R97">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>56</v>
       </c>
@@ -8056,29 +8351,32 @@
       <c r="K98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L98" s="2">
-        <v>13</v>
-      </c>
-      <c r="M98" s="2" t="s">
+      <c r="L98" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M98" s="2">
+        <v>13</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>17</v>
       </c>
-      <c r="O98" t="s">
-        <v>10</v>
-      </c>
       <c r="P98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q98" t="s">
+        <v>11</v>
+      </c>
+      <c r="R98" t="s">
         <v>297</v>
       </c>
-      <c r="R98">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>56</v>
       </c>
@@ -8112,29 +8410,32 @@
       <c r="K99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M99" s="2">
         <v>12</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N99">
-        <v>13</v>
-      </c>
-      <c r="O99" t="s">
-        <v>10</v>
+      <c r="O99">
+        <v>13</v>
       </c>
       <c r="P99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q99" t="s">
+        <v>11</v>
+      </c>
+      <c r="R99" t="s">
         <v>301</v>
       </c>
-      <c r="R99">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>56</v>
       </c>
@@ -8168,29 +8469,32 @@
       <c r="K100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M100" s="2">
         <v>12</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>12</v>
       </c>
-      <c r="O100" t="s">
-        <v>10</v>
-      </c>
       <c r="P100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q100" t="s">
+        <v>11</v>
+      </c>
+      <c r="R100" t="s">
         <v>304</v>
       </c>
-      <c r="R100">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>56</v>
       </c>
@@ -8224,29 +8528,32 @@
       <c r="K101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M101" s="2">
         <v>12</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>12</v>
       </c>
-      <c r="O101" t="s">
-        <v>10</v>
-      </c>
       <c r="P101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q101" t="s">
+        <v>11</v>
+      </c>
+      <c r="R101" t="s">
         <v>307</v>
       </c>
-      <c r="R101">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>56</v>
       </c>
@@ -8280,29 +8587,32 @@
       <c r="K102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M102" s="2">
         <v>12</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="N102" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>12</v>
       </c>
-      <c r="O102" t="s">
-        <v>10</v>
-      </c>
       <c r="P102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q102" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" t="s">
         <v>310</v>
       </c>
-      <c r="R102">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>56</v>
       </c>
@@ -8336,29 +8646,32 @@
       <c r="K103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M103" s="2">
         <v>12</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>7</v>
       </c>
-      <c r="O103" t="s">
-        <v>10</v>
-      </c>
       <c r="P103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q103" t="s">
+        <v>11</v>
+      </c>
+      <c r="R103" t="s">
         <v>313</v>
       </c>
-      <c r="R103">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>56</v>
       </c>
@@ -8392,29 +8705,32 @@
       <c r="K104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M104" s="2">
         <v>12</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>12</v>
       </c>
-      <c r="O104" t="s">
-        <v>10</v>
-      </c>
       <c r="P104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q104" t="s">
+        <v>11</v>
+      </c>
+      <c r="R104" t="s">
         <v>316</v>
       </c>
-      <c r="R104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>56</v>
       </c>
@@ -8448,29 +8764,32 @@
       <c r="K105" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M105" s="2">
         <v>12</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N105">
-        <v>13</v>
-      </c>
-      <c r="O105" t="s">
-        <v>10</v>
+      <c r="O105">
+        <v>13</v>
       </c>
       <c r="P105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q105" t="s">
+        <v>11</v>
+      </c>
+      <c r="R105" t="s">
         <v>319</v>
       </c>
-      <c r="R105">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>56</v>
       </c>
@@ -8504,29 +8823,32 @@
       <c r="K106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L106" s="2">
+      <c r="L106" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M106" s="2">
         <v>12</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>12</v>
       </c>
-      <c r="O106" t="s">
-        <v>10</v>
-      </c>
       <c r="P106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q106" t="s">
+        <v>11</v>
+      </c>
+      <c r="R106" t="s">
         <v>322</v>
       </c>
-      <c r="R106">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>56</v>
       </c>
@@ -8560,29 +8882,32 @@
       <c r="K107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M107" s="2">
         <v>12</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="N107" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>4</v>
       </c>
-      <c r="O107" t="s">
-        <v>10</v>
-      </c>
       <c r="P107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q107" t="s">
+        <v>11</v>
+      </c>
+      <c r="R107" t="s">
         <v>325</v>
       </c>
-      <c r="R107">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>56</v>
       </c>
@@ -8616,29 +8941,32 @@
       <c r="K108" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M108" s="2">
         <v>12</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="N108" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N108">
-        <v>13</v>
-      </c>
-      <c r="O108" t="s">
-        <v>10</v>
+      <c r="O108">
+        <v>13</v>
       </c>
       <c r="P108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108" t="s">
         <v>328</v>
       </c>
-      <c r="R108">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>56</v>
       </c>
@@ -8672,29 +9000,32 @@
       <c r="K109" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M109" s="2">
         <v>12</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="N109" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>12</v>
       </c>
-      <c r="O109" t="s">
-        <v>10</v>
-      </c>
       <c r="P109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q109" t="s">
+        <v>11</v>
+      </c>
+      <c r="R109" t="s">
         <v>332</v>
       </c>
-      <c r="R109">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>56</v>
       </c>
@@ -8728,29 +9059,32 @@
       <c r="K110" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M110" s="2">
         <v>12</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>12</v>
       </c>
-      <c r="O110" t="s">
-        <v>10</v>
-      </c>
       <c r="P110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q110" t="s">
+        <v>11</v>
+      </c>
+      <c r="R110" t="s">
         <v>335</v>
       </c>
-      <c r="R110">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>56</v>
       </c>
@@ -8784,29 +9118,32 @@
       <c r="K111" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M111" s="2">
         <v>12</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>12</v>
       </c>
-      <c r="O111" t="s">
-        <v>10</v>
-      </c>
       <c r="P111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q111" t="s">
+        <v>11</v>
+      </c>
+      <c r="R111" t="s">
         <v>338</v>
       </c>
-      <c r="R111">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>56</v>
       </c>
@@ -8840,29 +9177,32 @@
       <c r="K112" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M112" s="2">
         <v>12</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>12</v>
       </c>
-      <c r="O112" t="s">
-        <v>10</v>
-      </c>
       <c r="P112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q112" t="s">
+        <v>11</v>
+      </c>
+      <c r="R112" t="s">
         <v>341</v>
       </c>
-      <c r="R112">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>56</v>
       </c>
@@ -8896,29 +9236,32 @@
       <c r="K113" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L113" s="2">
+      <c r="L113" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M113" s="2">
         <v>12</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N113">
-        <v>13</v>
-      </c>
-      <c r="O113" t="s">
-        <v>10</v>
+      <c r="O113">
+        <v>13</v>
       </c>
       <c r="P113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q113" t="s">
+        <v>11</v>
+      </c>
+      <c r="R113" t="s">
         <v>344</v>
       </c>
-      <c r="R113">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -8952,29 +9295,32 @@
       <c r="K114" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L114" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M114" s="2">
         <v>12</v>
       </c>
-      <c r="M114" s="2" t="s">
+      <c r="N114" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>12</v>
       </c>
-      <c r="O114" t="s">
-        <v>10</v>
-      </c>
       <c r="P114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q114" t="s">
+        <v>11</v>
+      </c>
+      <c r="R114" t="s">
         <v>347</v>
       </c>
-      <c r="R114">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>56</v>
       </c>
@@ -9008,29 +9354,32 @@
       <c r="K115" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L115" s="2">
+      <c r="L115" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M115" s="2">
         <v>12</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="N115" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>12</v>
       </c>
-      <c r="O115" t="s">
-        <v>10</v>
-      </c>
       <c r="P115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q115" t="s">
+        <v>11</v>
+      </c>
+      <c r="R115" t="s">
         <v>350</v>
       </c>
-      <c r="R115">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>56</v>
       </c>
@@ -9064,29 +9413,32 @@
       <c r="K116" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L116" s="2">
+      <c r="L116" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M116" s="2">
         <v>12</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>9</v>
       </c>
-      <c r="O116" t="s">
-        <v>10</v>
-      </c>
       <c r="P116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q116" t="s">
+        <v>11</v>
+      </c>
+      <c r="R116" t="s">
         <v>353</v>
       </c>
-      <c r="R116">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>56</v>
       </c>
@@ -9120,29 +9472,32 @@
       <c r="K117" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L117" s="2">
+      <c r="L117" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M117" s="2">
         <v>12</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>12</v>
       </c>
-      <c r="O117" t="s">
-        <v>10</v>
-      </c>
       <c r="P117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q117" t="s">
+        <v>11</v>
+      </c>
+      <c r="R117" t="s">
         <v>356</v>
       </c>
-      <c r="R117">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56</v>
       </c>
@@ -9176,29 +9531,32 @@
       <c r="K118" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L118" s="2">
+      <c r="L118" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M118" s="2">
         <v>12</v>
       </c>
-      <c r="M118" s="2" t="s">
+      <c r="N118" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N118">
-        <v>13</v>
-      </c>
-      <c r="O118" t="s">
-        <v>10</v>
+      <c r="O118">
+        <v>13</v>
       </c>
       <c r="P118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q118" t="s">
+        <v>11</v>
+      </c>
+      <c r="R118" t="s">
         <v>359</v>
       </c>
-      <c r="R118">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>56</v>
       </c>
@@ -9232,29 +9590,32 @@
       <c r="K119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L119" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M119" s="2">
         <v>12</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="N119" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>9</v>
       </c>
-      <c r="O119" t="s">
-        <v>10</v>
-      </c>
       <c r="P119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q119" t="s">
+        <v>11</v>
+      </c>
+      <c r="R119" t="s">
         <v>362</v>
       </c>
-      <c r="R119">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9288,29 +9649,32 @@
       <c r="K120" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L120" s="2">
+      <c r="L120" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M120" s="2">
         <v>12</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>12</v>
       </c>
-      <c r="O120" t="s">
-        <v>10</v>
-      </c>
       <c r="P120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q120" t="s">
+        <v>11</v>
+      </c>
+      <c r="R120" t="s">
         <v>365</v>
       </c>
-      <c r="R120">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>56</v>
       </c>
@@ -9344,29 +9708,32 @@
       <c r="K121" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L121" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M121" s="2">
         <v>12</v>
       </c>
-      <c r="M121" s="2" t="s">
+      <c r="N121" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>12</v>
       </c>
-      <c r="O121" t="s">
-        <v>10</v>
-      </c>
       <c r="P121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q121" t="s">
+        <v>11</v>
+      </c>
+      <c r="R121" t="s">
         <v>368</v>
       </c>
-      <c r="R121">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>56</v>
       </c>
@@ -9400,29 +9767,32 @@
       <c r="K122" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L122" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M122" s="2">
         <v>12</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="N122" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N122">
-        <v>13</v>
-      </c>
-      <c r="O122" t="s">
-        <v>10</v>
+      <c r="O122">
+        <v>13</v>
       </c>
       <c r="P122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q122" t="s">
+        <v>11</v>
+      </c>
+      <c r="R122" t="s">
         <v>371</v>
       </c>
-      <c r="R122">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>56</v>
       </c>
@@ -9456,29 +9826,32 @@
       <c r="K123" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L123" s="2">
+      <c r="L123" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M123" s="2">
         <v>12</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>12</v>
       </c>
-      <c r="O123" t="s">
-        <v>10</v>
-      </c>
       <c r="P123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q123" t="s">
+        <v>11</v>
+      </c>
+      <c r="R123" t="s">
         <v>374</v>
       </c>
-      <c r="R123">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>56</v>
       </c>
@@ -9512,29 +9885,32 @@
       <c r="K124" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L124" s="2">
+      <c r="L124" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M124" s="2">
         <v>12</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>8</v>
       </c>
-      <c r="O124" t="s">
-        <v>10</v>
-      </c>
       <c r="P124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q124" t="s">
+        <v>11</v>
+      </c>
+      <c r="R124" t="s">
         <v>377</v>
       </c>
-      <c r="R124">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>56</v>
       </c>
@@ -9568,29 +9944,32 @@
       <c r="K125" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L125" s="2">
+      <c r="L125" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M125" s="2">
         <v>12</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>12</v>
       </c>
-      <c r="O125" t="s">
-        <v>10</v>
-      </c>
       <c r="P125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q125" t="s">
+        <v>11</v>
+      </c>
+      <c r="R125" t="s">
         <v>380</v>
       </c>
-      <c r="R125">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>56</v>
       </c>
@@ -9624,29 +10003,32 @@
       <c r="K126" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L126" s="2">
+      <c r="L126" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M126" s="2">
         <v>12</v>
       </c>
-      <c r="M126" s="2" t="s">
+      <c r="N126" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>9</v>
       </c>
-      <c r="O126" t="s">
-        <v>10</v>
-      </c>
       <c r="P126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q126" t="s">
+        <v>11</v>
+      </c>
+      <c r="R126" t="s">
         <v>383</v>
       </c>
-      <c r="R126">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>56</v>
       </c>
@@ -9680,29 +10062,32 @@
       <c r="K127" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L127" s="2">
+      <c r="L127" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M127" s="2">
         <v>12</v>
       </c>
-      <c r="M127" s="2" t="s">
+      <c r="N127" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>12</v>
       </c>
-      <c r="O127" t="s">
-        <v>10</v>
-      </c>
       <c r="P127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q127" t="s">
+        <v>11</v>
+      </c>
+      <c r="R127" t="s">
         <v>386</v>
       </c>
-      <c r="R127">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>56</v>
       </c>
@@ -9736,29 +10121,32 @@
       <c r="K128" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L128" s="2">
+      <c r="L128" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M128" s="2">
         <v>12</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="N128" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>12</v>
       </c>
-      <c r="O128" t="s">
-        <v>10</v>
-      </c>
       <c r="P128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q128" t="s">
+        <v>11</v>
+      </c>
+      <c r="R128" t="s">
         <v>389</v>
       </c>
-      <c r="R128">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>56</v>
       </c>
@@ -9792,29 +10180,32 @@
       <c r="K129" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L129" s="2">
+      <c r="L129" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M129" s="2">
         <v>12</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="N129" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>9</v>
       </c>
-      <c r="O129" t="s">
-        <v>10</v>
-      </c>
       <c r="P129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q129" t="s">
+        <v>11</v>
+      </c>
+      <c r="R129" t="s">
         <v>392</v>
       </c>
-      <c r="R129">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>56</v>
       </c>
@@ -9848,29 +10239,32 @@
       <c r="K130" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L130" s="2">
+      <c r="L130" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M130" s="2">
         <v>12</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>12</v>
       </c>
-      <c r="O130" t="s">
-        <v>10</v>
-      </c>
       <c r="P130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q130" t="s">
+        <v>11</v>
+      </c>
+      <c r="R130" t="s">
         <v>395</v>
       </c>
-      <c r="R130">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>56</v>
       </c>
@@ -9904,29 +10298,32 @@
       <c r="K131" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L131" s="2">
+      <c r="L131" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M131" s="2">
         <v>12</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>9</v>
       </c>
-      <c r="O131" t="s">
-        <v>10</v>
-      </c>
       <c r="P131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q131" t="s">
+        <v>11</v>
+      </c>
+      <c r="R131" t="s">
         <v>398</v>
       </c>
-      <c r="R131">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>56</v>
       </c>
@@ -9960,26 +10357,29 @@
       <c r="K132" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L132" s="2">
+      <c r="L132" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M132" s="2">
         <v>12</v>
       </c>
-      <c r="M132" s="2" t="s">
+      <c r="N132" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>12</v>
       </c>
-      <c r="O132" t="s">
-        <v>10</v>
-      </c>
       <c r="P132" t="s">
-        <v>11</v>
-      </c>
-      <c r="R132">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>11</v>
+      </c>
+      <c r="S132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>56</v>
       </c>
@@ -10013,29 +10413,32 @@
       <c r="K133" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L133" s="2">
+      <c r="L133" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M133" s="2">
         <v>12</v>
       </c>
-      <c r="M133" s="2" t="s">
+      <c r="N133" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>8</v>
       </c>
-      <c r="O133" t="s">
-        <v>10</v>
-      </c>
       <c r="P133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q133" t="s">
+        <v>11</v>
+      </c>
+      <c r="R133" t="s">
         <v>403</v>
       </c>
-      <c r="R133">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>56</v>
       </c>
@@ -10069,29 +10472,32 @@
       <c r="K134" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L134" s="2">
+      <c r="L134" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M134" s="2">
         <v>12</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="N134" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>12</v>
       </c>
-      <c r="O134" t="s">
-        <v>10</v>
-      </c>
       <c r="P134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q134" t="s">
+        <v>11</v>
+      </c>
+      <c r="R134" t="s">
         <v>406</v>
       </c>
-      <c r="R134">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>56</v>
       </c>
@@ -10125,29 +10531,32 @@
       <c r="K135" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L135" s="2">
+      <c r="L135" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M135" s="2">
         <v>12</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>9</v>
       </c>
-      <c r="O135" t="s">
-        <v>10</v>
-      </c>
       <c r="P135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q135" t="s">
+        <v>11</v>
+      </c>
+      <c r="R135" t="s">
         <v>409</v>
       </c>
-      <c r="R135">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>56</v>
       </c>
@@ -10181,29 +10590,32 @@
       <c r="K136" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L136" s="2">
+      <c r="L136" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M136" s="2">
         <v>12</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>12</v>
       </c>
-      <c r="O136" t="s">
-        <v>10</v>
-      </c>
       <c r="P136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q136" t="s">
+        <v>11</v>
+      </c>
+      <c r="R136" t="s">
         <v>412</v>
       </c>
-      <c r="R136">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>56</v>
       </c>
@@ -10237,29 +10649,32 @@
       <c r="K137" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L137" s="2">
+      <c r="L137" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M137" s="2">
         <v>12</v>
       </c>
-      <c r="M137" s="2" t="s">
+      <c r="N137" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>12</v>
       </c>
-      <c r="O137" t="s">
-        <v>10</v>
-      </c>
       <c r="P137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q137" t="s">
+        <v>11</v>
+      </c>
+      <c r="R137" t="s">
         <v>395</v>
       </c>
-      <c r="R137">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>56</v>
       </c>
@@ -10293,29 +10708,32 @@
       <c r="K138" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L138" s="2">
+      <c r="L138" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M138" s="2">
         <v>12</v>
       </c>
-      <c r="M138" s="2" t="s">
+      <c r="N138" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N138">
-        <v>13</v>
-      </c>
-      <c r="O138" t="s">
-        <v>10</v>
+      <c r="O138">
+        <v>13</v>
       </c>
       <c r="P138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q138" t="s">
+        <v>11</v>
+      </c>
+      <c r="R138" t="s">
         <v>417</v>
       </c>
-      <c r="R138">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>56</v>
       </c>
@@ -10349,29 +10767,32 @@
       <c r="K139" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L139" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M139" s="2">
         <v>12</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N139">
-        <v>13</v>
-      </c>
-      <c r="O139" t="s">
-        <v>10</v>
+      <c r="O139">
+        <v>13</v>
       </c>
       <c r="P139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q139" t="s">
+        <v>11</v>
+      </c>
+      <c r="R139" t="s">
         <v>420</v>
       </c>
-      <c r="R139">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56</v>
       </c>
@@ -10405,29 +10826,32 @@
       <c r="K140" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L140" s="2">
+      <c r="L140" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M140" s="2">
         <v>12</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>12</v>
       </c>
-      <c r="O140" t="s">
-        <v>10</v>
-      </c>
       <c r="P140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q140" t="s">
+        <v>11</v>
+      </c>
+      <c r="R140" t="s">
         <v>423</v>
       </c>
-      <c r="R140">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -10461,29 +10885,32 @@
       <c r="K141" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L141" s="2">
+      <c r="L141" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M141" s="2">
         <v>12</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>12</v>
       </c>
-      <c r="O141" t="s">
-        <v>10</v>
-      </c>
       <c r="P141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q141" t="s">
+        <v>11</v>
+      </c>
+      <c r="R141" t="s">
         <v>426</v>
       </c>
-      <c r="R141">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>56</v>
       </c>
@@ -10517,29 +10944,32 @@
       <c r="K142" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L142" s="2">
+      <c r="L142" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M142" s="2">
         <v>12</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N142">
-        <v>13</v>
-      </c>
-      <c r="O142" t="s">
-        <v>10</v>
+      <c r="O142">
+        <v>13</v>
       </c>
       <c r="P142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q142" t="s">
+        <v>11</v>
+      </c>
+      <c r="R142" t="s">
         <v>429</v>
       </c>
-      <c r="R142">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>56</v>
       </c>
@@ -10573,26 +11003,29 @@
       <c r="K143" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L143" s="2">
+      <c r="L143" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M143" s="2">
         <v>12</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="N143" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N143">
-        <v>13</v>
-      </c>
-      <c r="O143" t="s">
-        <v>10</v>
+      <c r="O143">
+        <v>13</v>
       </c>
       <c r="P143" t="s">
-        <v>11</v>
-      </c>
-      <c r="R143">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>11</v>
+      </c>
+      <c r="S143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>56</v>
       </c>
@@ -10626,29 +11059,32 @@
       <c r="K144" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L144" s="2">
+      <c r="L144" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M144" s="2">
         <v>12</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="N144" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>12</v>
       </c>
-      <c r="O144" t="s">
-        <v>10</v>
-      </c>
       <c r="P144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q144" t="s">
+        <v>11</v>
+      </c>
+      <c r="R144" t="s">
         <v>434</v>
       </c>
-      <c r="R144">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -10682,29 +11118,32 @@
       <c r="K145" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L145" s="2">
+      <c r="L145" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M145" s="2">
         <v>12</v>
       </c>
-      <c r="M145" s="2" t="s">
+      <c r="N145" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>12</v>
       </c>
-      <c r="O145" t="s">
-        <v>10</v>
-      </c>
       <c r="P145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q145" t="s">
+        <v>11</v>
+      </c>
+      <c r="R145" t="s">
         <v>437</v>
       </c>
-      <c r="R145">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -10738,29 +11177,32 @@
       <c r="K146" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L146" s="2">
+      <c r="L146" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M146" s="2">
         <v>12</v>
       </c>
-      <c r="M146" s="2" t="s">
+      <c r="N146" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>12</v>
       </c>
-      <c r="O146" t="s">
-        <v>10</v>
-      </c>
       <c r="P146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q146" t="s">
+        <v>11</v>
+      </c>
+      <c r="R146" t="s">
         <v>440</v>
       </c>
-      <c r="R146">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>56</v>
       </c>
@@ -10794,29 +11236,32 @@
       <c r="K147" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L147" s="2">
+      <c r="L147" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M147" s="2">
         <v>12</v>
       </c>
-      <c r="M147" s="2" t="s">
+      <c r="N147" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N147">
+      <c r="O147">
         <v>12</v>
       </c>
-      <c r="O147" t="s">
-        <v>10</v>
-      </c>
       <c r="P147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q147" t="s">
+        <v>11</v>
+      </c>
+      <c r="R147" t="s">
         <v>443</v>
       </c>
-      <c r="R147">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>56</v>
       </c>
@@ -10850,29 +11295,32 @@
       <c r="K148" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L148" s="2">
+      <c r="L148" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M148" s="2">
         <v>12</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N148">
-        <v>13</v>
-      </c>
-      <c r="O148" t="s">
-        <v>10</v>
+      <c r="O148">
+        <v>13</v>
       </c>
       <c r="P148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q148" t="s">
+        <v>11</v>
+      </c>
+      <c r="R148" t="s">
         <v>446</v>
       </c>
-      <c r="R148">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>56</v>
       </c>
@@ -10906,29 +11354,32 @@
       <c r="K149" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L149" s="2">
+      <c r="L149" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M149" s="2">
         <v>12</v>
       </c>
-      <c r="M149" s="2" t="s">
+      <c r="N149" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N149">
+      <c r="O149">
         <v>12</v>
       </c>
-      <c r="O149" t="s">
-        <v>10</v>
-      </c>
       <c r="P149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q149" t="s">
+        <v>11</v>
+      </c>
+      <c r="R149" t="s">
         <v>449</v>
       </c>
-      <c r="R149">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>56</v>
       </c>
@@ -10962,29 +11413,32 @@
       <c r="K150" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L150" s="2">
+      <c r="L150" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M150" s="2">
         <v>12</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N150">
-        <v>13</v>
-      </c>
-      <c r="O150" t="s">
-        <v>10</v>
+      <c r="O150">
+        <v>13</v>
       </c>
       <c r="P150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q150" t="s">
+        <v>11</v>
+      </c>
+      <c r="R150" t="s">
         <v>452</v>
       </c>
-      <c r="R150">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>56</v>
       </c>
@@ -11018,29 +11472,32 @@
       <c r="K151" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L151" s="2">
+      <c r="L151" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M151" s="2">
         <v>12</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N151">
+      <c r="O151">
         <v>12</v>
       </c>
-      <c r="O151" t="s">
-        <v>10</v>
-      </c>
       <c r="P151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q151" t="s">
+        <v>11</v>
+      </c>
+      <c r="R151" t="s">
         <v>455</v>
       </c>
-      <c r="R151">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>56</v>
       </c>
@@ -11074,29 +11531,32 @@
       <c r="K152" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L152" s="2">
+      <c r="L152" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M152" s="2">
         <v>12</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N152">
-        <v>10</v>
-      </c>
-      <c r="O152" t="s">
+      <c r="O152">
         <v>10</v>
       </c>
       <c r="P152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R152" t="s">
         <v>458</v>
       </c>
-      <c r="R152">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>56</v>
       </c>
@@ -11130,29 +11590,32 @@
       <c r="K153" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L153" s="2">
+      <c r="L153" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M153" s="2">
         <v>12</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>12</v>
       </c>
-      <c r="O153" t="s">
-        <v>10</v>
-      </c>
       <c r="P153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q153" t="s">
+        <v>11</v>
+      </c>
+      <c r="R153" t="s">
         <v>461</v>
       </c>
-      <c r="R153">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>56</v>
       </c>
@@ -11186,29 +11649,32 @@
       <c r="K154" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L154" s="2">
+      <c r="L154" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M154" s="2">
         <v>12</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="N154" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>12</v>
       </c>
-      <c r="O154" t="s">
-        <v>10</v>
-      </c>
       <c r="P154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q154" t="s">
+        <v>11</v>
+      </c>
+      <c r="R154" t="s">
         <v>464</v>
       </c>
-      <c r="R154">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>56</v>
       </c>
@@ -11242,29 +11708,32 @@
       <c r="K155" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L155" s="2">
+      <c r="L155" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M155" s="2">
         <v>12</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="N155" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>12</v>
       </c>
-      <c r="O155" t="s">
-        <v>10</v>
-      </c>
       <c r="P155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q155" t="s">
+        <v>11</v>
+      </c>
+      <c r="R155" t="s">
         <v>467</v>
       </c>
-      <c r="R155">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>56</v>
       </c>
@@ -11298,29 +11767,32 @@
       <c r="K156" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L156" s="2">
+      <c r="L156" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M156" s="2">
         <v>12</v>
       </c>
-      <c r="M156" s="2" t="s">
+      <c r="N156" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>12</v>
       </c>
-      <c r="O156" t="s">
-        <v>10</v>
-      </c>
       <c r="P156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q156" t="s">
+        <v>11</v>
+      </c>
+      <c r="R156" t="s">
         <v>470</v>
       </c>
-      <c r="R156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>56</v>
       </c>
@@ -11354,29 +11826,32 @@
       <c r="K157" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L157" s="2">
+      <c r="L157" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M157" s="2">
         <v>12</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="N157" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N157">
-        <v>13</v>
-      </c>
-      <c r="O157" t="s">
-        <v>10</v>
+      <c r="O157">
+        <v>13</v>
       </c>
       <c r="P157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R157" t="s">
         <v>473</v>
       </c>
-      <c r="R157">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>56</v>
       </c>
@@ -11410,26 +11885,29 @@
       <c r="K158" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L158" s="2">
+      <c r="L158" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M158" s="2">
         <v>12</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="N158" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>8</v>
       </c>
-      <c r="O158" t="s">
-        <v>10</v>
-      </c>
       <c r="P158" t="s">
-        <v>11</v>
-      </c>
-      <c r="R158">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>11</v>
+      </c>
+      <c r="S158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>56</v>
       </c>
@@ -11463,29 +11941,32 @@
       <c r="K159" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L159" s="2">
+      <c r="L159" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M159" s="2">
         <v>12</v>
       </c>
-      <c r="M159" s="2" t="s">
+      <c r="N159" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N159">
-        <v>13</v>
-      </c>
-      <c r="O159" t="s">
-        <v>10</v>
+      <c r="O159">
+        <v>13</v>
       </c>
       <c r="P159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q159" t="s">
+        <v>11</v>
+      </c>
+      <c r="R159" t="s">
         <v>478</v>
       </c>
-      <c r="R159">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>56</v>
       </c>
@@ -11519,29 +12000,32 @@
       <c r="K160" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L160" s="2">
+      <c r="L160" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M160" s="2">
         <v>12</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="N160" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N160">
-        <v>13</v>
-      </c>
-      <c r="O160" t="s">
-        <v>10</v>
+      <c r="O160">
+        <v>13</v>
       </c>
       <c r="P160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q160" t="s">
+        <v>11</v>
+      </c>
+      <c r="R160" t="s">
         <v>481</v>
       </c>
-      <c r="R160">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>56</v>
       </c>
@@ -11575,29 +12059,32 @@
       <c r="K161" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L161" s="2">
+      <c r="L161" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M161" s="2">
         <v>12</v>
       </c>
-      <c r="M161" s="2" t="s">
+      <c r="N161" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N161">
-        <v>13</v>
-      </c>
-      <c r="O161" t="s">
-        <v>10</v>
+      <c r="O161">
+        <v>13</v>
       </c>
       <c r="P161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q161" t="s">
+        <v>11</v>
+      </c>
+      <c r="R161" t="s">
         <v>481</v>
       </c>
-      <c r="R161">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>56</v>
       </c>
@@ -11631,29 +12118,32 @@
       <c r="K162" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L162" s="2">
+      <c r="L162" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M162" s="2">
         <v>12</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N162">
-        <v>13</v>
-      </c>
-      <c r="O162" t="s">
-        <v>10</v>
+      <c r="O162">
+        <v>13</v>
       </c>
       <c r="P162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q162" t="s">
+        <v>11</v>
+      </c>
+      <c r="R162" t="s">
         <v>486</v>
       </c>
-      <c r="R162">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>56</v>
       </c>
@@ -11687,29 +12177,32 @@
       <c r="K163" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L163" s="2">
+      <c r="L163" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M163" s="2">
         <v>12</v>
       </c>
-      <c r="M163" s="2" t="s">
+      <c r="N163" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N163">
+      <c r="O163">
         <v>12</v>
       </c>
-      <c r="O163" t="s">
-        <v>10</v>
-      </c>
       <c r="P163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q163" t="s">
+        <v>11</v>
+      </c>
+      <c r="R163" t="s">
         <v>489</v>
       </c>
-      <c r="R163">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>56</v>
       </c>
@@ -11743,29 +12236,32 @@
       <c r="K164" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L164" s="2">
+      <c r="L164" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M164" s="2">
         <v>12</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="N164" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N164">
+      <c r="O164">
         <v>9</v>
       </c>
-      <c r="O164" t="s">
-        <v>10</v>
-      </c>
       <c r="P164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q164" t="s">
+        <v>11</v>
+      </c>
+      <c r="R164" t="s">
         <v>492</v>
       </c>
-      <c r="R164">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>56</v>
       </c>
@@ -11799,26 +12295,29 @@
       <c r="K165" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L165" s="2">
+      <c r="L165" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M165" s="2">
         <v>12</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="N165" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N165">
-        <v>10</v>
-      </c>
-      <c r="O165" t="s">
+      <c r="O165">
         <v>10</v>
       </c>
       <c r="P165" t="s">
-        <v>11</v>
-      </c>
-      <c r="R165">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>56</v>
       </c>
@@ -11852,29 +12351,32 @@
       <c r="K166" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L166" s="2">
+      <c r="L166" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M166" s="2">
         <v>12</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="N166" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N166">
+      <c r="O166">
         <v>9</v>
       </c>
-      <c r="O166" t="s">
-        <v>10</v>
-      </c>
       <c r="P166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q166" t="s">
+        <v>11</v>
+      </c>
+      <c r="R166" t="s">
         <v>497</v>
       </c>
-      <c r="R166">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>56</v>
       </c>
@@ -11908,29 +12410,32 @@
       <c r="K167" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M167" s="2">
         <v>12</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N167">
-        <v>10</v>
-      </c>
-      <c r="O167" t="s">
+      <c r="O167">
         <v>10</v>
       </c>
       <c r="P167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q167" t="s">
+        <v>11</v>
+      </c>
+      <c r="R167" t="s">
         <v>500</v>
       </c>
-      <c r="R167">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>56</v>
       </c>
@@ -11964,29 +12469,32 @@
       <c r="K168" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L168" s="2">
+      <c r="L168" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M168" s="2">
         <v>12</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N168">
-        <v>10</v>
-      </c>
-      <c r="O168" t="s">
+      <c r="O168">
         <v>10</v>
       </c>
       <c r="P168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q168" t="s">
+        <v>11</v>
+      </c>
+      <c r="R168" t="s">
         <v>503</v>
       </c>
-      <c r="R168">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>56</v>
       </c>
@@ -12020,29 +12528,32 @@
       <c r="K169" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L169" s="2">
+      <c r="L169" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M169" s="2">
         <v>12</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="N169" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N169">
+      <c r="O169">
         <v>7</v>
       </c>
-      <c r="O169" t="s">
-        <v>10</v>
-      </c>
       <c r="P169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q169" t="s">
+        <v>11</v>
+      </c>
+      <c r="R169" t="s">
         <v>506</v>
       </c>
-      <c r="R169">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>56</v>
       </c>
@@ -12076,26 +12587,29 @@
       <c r="K170" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L170" s="2">
+      <c r="L170" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M170" s="2">
         <v>12</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="N170" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N170">
+      <c r="O170">
         <v>7</v>
       </c>
-      <c r="O170" t="s">
-        <v>10</v>
-      </c>
       <c r="P170" t="s">
-        <v>11</v>
-      </c>
-      <c r="R170">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>11</v>
+      </c>
+      <c r="S170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>56</v>
       </c>
@@ -12129,29 +12643,32 @@
       <c r="K171" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M171" s="2">
         <v>12</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N171">
+      <c r="O171">
         <v>7</v>
       </c>
-      <c r="O171" t="s">
-        <v>10</v>
-      </c>
       <c r="P171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q171" t="s">
+        <v>11</v>
+      </c>
+      <c r="R171" t="s">
         <v>511</v>
       </c>
-      <c r="R171">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>56</v>
       </c>
@@ -12185,29 +12702,32 @@
       <c r="K172" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M172" s="2">
         <v>12</v>
       </c>
-      <c r="M172" s="2" t="s">
+      <c r="N172" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N172">
-        <v>10</v>
-      </c>
-      <c r="O172" t="s">
+      <c r="O172">
         <v>10</v>
       </c>
       <c r="P172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q172" t="s">
+        <v>11</v>
+      </c>
+      <c r="R172" t="s">
         <v>514</v>
       </c>
-      <c r="R172">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>56</v>
       </c>
@@ -12241,29 +12761,32 @@
       <c r="K173" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M173" s="2">
         <v>12</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N173">
+      <c r="O173">
         <v>6</v>
       </c>
-      <c r="O173" t="s">
-        <v>10</v>
-      </c>
       <c r="P173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q173" t="s">
+        <v>11</v>
+      </c>
+      <c r="R173" t="s">
         <v>517</v>
       </c>
-      <c r="R173">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>56</v>
       </c>
@@ -12297,29 +12820,32 @@
       <c r="K174" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L174" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M174" s="2">
         <v>12</v>
       </c>
-      <c r="M174" s="2" t="s">
+      <c r="N174" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N174">
+      <c r="O174">
         <v>9</v>
       </c>
-      <c r="O174" t="s">
-        <v>10</v>
-      </c>
       <c r="P174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q174" t="s">
+        <v>11</v>
+      </c>
+      <c r="R174" t="s">
         <v>520</v>
       </c>
-      <c r="R174">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>56</v>
       </c>
@@ -12353,29 +12879,32 @@
       <c r="K175" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M175" s="2">
         <v>12</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N175">
+      <c r="O175">
         <v>9</v>
       </c>
-      <c r="O175" t="s">
-        <v>10</v>
-      </c>
       <c r="P175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q175" t="s">
+        <v>11</v>
+      </c>
+      <c r="R175" t="s">
         <v>523</v>
       </c>
-      <c r="R175">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>56</v>
       </c>
@@ -12409,29 +12938,32 @@
       <c r="K176" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L176" s="2">
+      <c r="L176" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M176" s="2">
         <v>12</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N176">
+      <c r="O176">
         <v>12</v>
       </c>
-      <c r="O176" t="s">
-        <v>10</v>
-      </c>
       <c r="P176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q176" t="s">
+        <v>11</v>
+      </c>
+      <c r="R176" t="s">
         <v>526</v>
       </c>
-      <c r="R176">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>56</v>
       </c>
@@ -12465,29 +12997,32 @@
       <c r="K177" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L177" s="2">
+      <c r="L177" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M177" s="2">
         <v>12</v>
       </c>
-      <c r="M177" s="2" t="s">
+      <c r="N177" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N177">
-        <v>13</v>
-      </c>
-      <c r="O177" t="s">
-        <v>10</v>
+      <c r="O177">
+        <v>13</v>
       </c>
       <c r="P177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q177" t="s">
+        <v>11</v>
+      </c>
+      <c r="R177" t="s">
         <v>529</v>
       </c>
-      <c r="R177">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>56</v>
       </c>
@@ -12521,29 +13056,32 @@
       <c r="K178" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L178" s="2">
+      <c r="L178" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M178" s="2">
         <v>12</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="N178" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N178">
-        <v>13</v>
-      </c>
-      <c r="O178" t="s">
-        <v>10</v>
+      <c r="O178">
+        <v>13</v>
       </c>
       <c r="P178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q178" t="s">
+        <v>11</v>
+      </c>
+      <c r="R178" t="s">
         <v>532</v>
       </c>
-      <c r="R178">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
@@ -12577,29 +13115,32 @@
       <c r="K179" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L179" s="2">
+      <c r="L179" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M179" s="2">
         <v>12</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="N179" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N179">
-        <v>13</v>
-      </c>
-      <c r="O179" t="s">
-        <v>10</v>
+      <c r="O179">
+        <v>13</v>
       </c>
       <c r="P179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q179" t="s">
+        <v>11</v>
+      </c>
+      <c r="R179" t="s">
         <v>535</v>
       </c>
-      <c r="R179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>56</v>
       </c>
@@ -12633,29 +13174,32 @@
       <c r="K180" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L180" s="2">
+      <c r="L180" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M180" s="2">
         <v>12</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="N180" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N180">
+      <c r="O180">
         <v>9</v>
       </c>
-      <c r="O180" t="s">
-        <v>10</v>
-      </c>
       <c r="P180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q180" t="s">
+        <v>11</v>
+      </c>
+      <c r="R180" t="s">
         <v>538</v>
       </c>
-      <c r="R180">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>56</v>
       </c>
@@ -12689,29 +13233,32 @@
       <c r="K181" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M181" s="2">
         <v>12</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="N181" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N181">
+      <c r="O181">
         <v>6</v>
       </c>
-      <c r="O181" t="s">
-        <v>10</v>
-      </c>
       <c r="P181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q181" t="s">
+        <v>11</v>
+      </c>
+      <c r="R181" t="s">
         <v>541</v>
       </c>
-      <c r="R181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>56</v>
       </c>
@@ -12745,29 +13292,32 @@
       <c r="K182" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L182" s="2">
+      <c r="L182" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M182" s="2">
         <v>12</v>
       </c>
-      <c r="M182" s="2" t="s">
+      <c r="N182" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N182">
-        <v>13</v>
-      </c>
-      <c r="O182" t="s">
-        <v>10</v>
+      <c r="O182">
+        <v>13</v>
       </c>
       <c r="P182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q182" t="s">
+        <v>11</v>
+      </c>
+      <c r="R182" t="s">
         <v>544</v>
       </c>
-      <c r="R182">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>56</v>
       </c>
@@ -12801,29 +13351,32 @@
       <c r="K183" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M183" s="2">
         <v>12</v>
       </c>
-      <c r="M183" s="2" t="s">
+      <c r="N183" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N183">
-        <v>13</v>
-      </c>
-      <c r="O183" t="s">
-        <v>10</v>
+      <c r="O183">
+        <v>13</v>
       </c>
       <c r="P183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q183" t="s">
+        <v>11</v>
+      </c>
+      <c r="R183" t="s">
         <v>547</v>
       </c>
-      <c r="R183">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>56</v>
       </c>
@@ -12857,26 +13410,29 @@
       <c r="K184" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M184" s="2">
         <v>12</v>
       </c>
-      <c r="M184" s="2" t="s">
+      <c r="N184" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N184">
-        <v>10</v>
-      </c>
-      <c r="O184" t="s">
+      <c r="O184">
         <v>10</v>
       </c>
       <c r="P184" t="s">
-        <v>11</v>
-      </c>
-      <c r="R184">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>11</v>
+      </c>
+      <c r="S184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>56</v>
       </c>
@@ -12910,29 +13466,32 @@
       <c r="K185" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L185" s="2">
+      <c r="L185" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M185" s="2">
         <v>12</v>
       </c>
-      <c r="M185" s="2" t="s">
+      <c r="N185" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N185">
-        <v>13</v>
-      </c>
-      <c r="O185" t="s">
-        <v>10</v>
+      <c r="O185">
+        <v>13</v>
       </c>
       <c r="P185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q185" t="s">
+        <v>11</v>
+      </c>
+      <c r="R185" t="s">
         <v>552</v>
       </c>
-      <c r="R185">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>56</v>
       </c>
@@ -12966,34 +13525,33 @@
       <c r="K186" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M186" s="2">
         <v>30</v>
       </c>
-      <c r="M186" s="2" t="s">
+      <c r="N186" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="N186">
+      <c r="O186">
         <v>0</v>
       </c>
-      <c r="O186" t="s">
-        <v>10</v>
-      </c>
       <c r="P186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q186" t="s">
+        <v>11</v>
+      </c>
+      <c r="R186" t="s">
         <v>556</v>
       </c>
-      <c r="R186">
+      <c r="S186">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q186" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:Q186">
-      <sortCondition ref="M2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:S186" xr:uid="{4DF835AF-9785-4F20-863A-E8A2E12951BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/source_data/Qual_3_data.xlsx
+++ b/source_data/Qual_3_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0B5595-6823-49BA-9825-E80D72C3321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52AD80-21A9-4E42-B6FD-758D708E2059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="3 - Length of maternity leave_d" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 - Length of maternity leave_d'!$A$1:$S$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 - Length of maternity leave_d'!$A$1:$W$186</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="579">
   <si>
     <t>ISO3</t>
   </si>
@@ -1746,6 +1746,30 @@
   </si>
   <si>
     <t>TIME_PERIOD</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>NATURE_DESC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Country Data</t>
   </si>
 </sst>
 </file>
@@ -2594,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S186"/>
+  <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,11 +2641,12 @@
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="22.42578125" customWidth="1"/>
+    <col min="22" max="22" width="50.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>564</v>
       </c>
@@ -2674,13 +2699,25 @@
         <v>557</v>
       </c>
       <c r="R1" t="s">
+        <v>575</v>
+      </c>
+      <c r="S1" t="s">
+        <v>576</v>
+      </c>
+      <c r="T1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V1" t="s">
         <v>562</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>56</v>
       </c>
@@ -2733,13 +2770,25 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S2" t="s">
+        <v>578</v>
+      </c>
+      <c r="T2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U2" t="s">
+        <v>574</v>
+      </c>
+      <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="S2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>56</v>
       </c>
@@ -2792,13 +2841,25 @@
         <v>11</v>
       </c>
       <c r="R3" t="s">
+        <v>577</v>
+      </c>
+      <c r="S3" t="s">
+        <v>578</v>
+      </c>
+      <c r="T3" t="s">
+        <v>573</v>
+      </c>
+      <c r="U3" t="s">
+        <v>574</v>
+      </c>
+      <c r="V3" t="s">
         <v>16</v>
       </c>
-      <c r="S3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>56</v>
       </c>
@@ -2850,11 +2911,23 @@
       <c r="Q4" t="s">
         <v>11</v>
       </c>
-      <c r="S4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>577</v>
+      </c>
+      <c r="S4" t="s">
+        <v>578</v>
+      </c>
+      <c r="T4" t="s">
+        <v>573</v>
+      </c>
+      <c r="U4" t="s">
+        <v>574</v>
+      </c>
+      <c r="W4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56</v>
       </c>
@@ -2907,13 +2980,25 @@
         <v>11</v>
       </c>
       <c r="R5" t="s">
+        <v>577</v>
+      </c>
+      <c r="S5" t="s">
+        <v>578</v>
+      </c>
+      <c r="T5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U5" t="s">
+        <v>574</v>
+      </c>
+      <c r="V5" t="s">
         <v>22</v>
       </c>
-      <c r="S5">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56</v>
       </c>
@@ -2966,13 +3051,25 @@
         <v>11</v>
       </c>
       <c r="R6" t="s">
+        <v>577</v>
+      </c>
+      <c r="S6" t="s">
+        <v>578</v>
+      </c>
+      <c r="T6" t="s">
+        <v>573</v>
+      </c>
+      <c r="U6" t="s">
+        <v>574</v>
+      </c>
+      <c r="V6" t="s">
         <v>25</v>
       </c>
-      <c r="S6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>56</v>
       </c>
@@ -3025,13 +3122,25 @@
         <v>11</v>
       </c>
       <c r="R7" t="s">
+        <v>577</v>
+      </c>
+      <c r="S7" t="s">
+        <v>578</v>
+      </c>
+      <c r="T7" t="s">
+        <v>573</v>
+      </c>
+      <c r="U7" t="s">
+        <v>574</v>
+      </c>
+      <c r="V7" t="s">
         <v>28</v>
       </c>
-      <c r="S7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56</v>
       </c>
@@ -3084,13 +3193,25 @@
         <v>11</v>
       </c>
       <c r="R8" t="s">
+        <v>577</v>
+      </c>
+      <c r="S8" t="s">
+        <v>578</v>
+      </c>
+      <c r="T8" t="s">
+        <v>573</v>
+      </c>
+      <c r="U8" t="s">
+        <v>574</v>
+      </c>
+      <c r="V8" t="s">
         <v>31</v>
       </c>
-      <c r="S8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -3143,13 +3264,25 @@
         <v>11</v>
       </c>
       <c r="R9" t="s">
+        <v>577</v>
+      </c>
+      <c r="S9" t="s">
+        <v>578</v>
+      </c>
+      <c r="T9" t="s">
+        <v>573</v>
+      </c>
+      <c r="U9" t="s">
+        <v>574</v>
+      </c>
+      <c r="V9" t="s">
         <v>34</v>
       </c>
-      <c r="S9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56</v>
       </c>
@@ -3202,13 +3335,25 @@
         <v>11</v>
       </c>
       <c r="R10" t="s">
+        <v>577</v>
+      </c>
+      <c r="S10" t="s">
+        <v>578</v>
+      </c>
+      <c r="T10" t="s">
+        <v>573</v>
+      </c>
+      <c r="U10" t="s">
+        <v>574</v>
+      </c>
+      <c r="V10" t="s">
         <v>37</v>
       </c>
-      <c r="S10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>56</v>
       </c>
@@ -3261,13 +3406,25 @@
         <v>11</v>
       </c>
       <c r="R11" t="s">
+        <v>577</v>
+      </c>
+      <c r="S11" t="s">
+        <v>578</v>
+      </c>
+      <c r="T11" t="s">
+        <v>573</v>
+      </c>
+      <c r="U11" t="s">
+        <v>574</v>
+      </c>
+      <c r="V11" t="s">
         <v>40</v>
       </c>
-      <c r="S11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>56</v>
       </c>
@@ -3320,13 +3477,25 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
+        <v>577</v>
+      </c>
+      <c r="S12" t="s">
+        <v>578</v>
+      </c>
+      <c r="T12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U12" t="s">
+        <v>574</v>
+      </c>
+      <c r="V12" t="s">
         <v>43</v>
       </c>
-      <c r="S12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56</v>
       </c>
@@ -3379,13 +3548,25 @@
         <v>11</v>
       </c>
       <c r="R13" t="s">
+        <v>577</v>
+      </c>
+      <c r="S13" t="s">
+        <v>578</v>
+      </c>
+      <c r="T13" t="s">
+        <v>573</v>
+      </c>
+      <c r="U13" t="s">
+        <v>574</v>
+      </c>
+      <c r="V13" t="s">
         <v>47</v>
       </c>
-      <c r="S13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
@@ -3438,13 +3619,25 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
+        <v>577</v>
+      </c>
+      <c r="S14" t="s">
+        <v>578</v>
+      </c>
+      <c r="T14" t="s">
+        <v>573</v>
+      </c>
+      <c r="U14" t="s">
+        <v>574</v>
+      </c>
+      <c r="V14" t="s">
         <v>50</v>
       </c>
-      <c r="S14">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56</v>
       </c>
@@ -3497,13 +3690,25 @@
         <v>11</v>
       </c>
       <c r="R15" t="s">
+        <v>577</v>
+      </c>
+      <c r="S15" t="s">
+        <v>578</v>
+      </c>
+      <c r="T15" t="s">
+        <v>573</v>
+      </c>
+      <c r="U15" t="s">
+        <v>574</v>
+      </c>
+      <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="S15">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>56</v>
       </c>
@@ -3556,13 +3761,25 @@
         <v>11</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="S16" t="s">
+        <v>578</v>
+      </c>
+      <c r="T16" t="s">
+        <v>573</v>
+      </c>
+      <c r="U16" t="s">
+        <v>574</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
@@ -3615,13 +3832,25 @@
         <v>11</v>
       </c>
       <c r="R17" t="s">
+        <v>577</v>
+      </c>
+      <c r="S17" t="s">
+        <v>578</v>
+      </c>
+      <c r="T17" t="s">
+        <v>573</v>
+      </c>
+      <c r="U17" t="s">
+        <v>574</v>
+      </c>
+      <c r="V17" t="s">
         <v>59</v>
       </c>
-      <c r="S17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -3674,13 +3903,25 @@
         <v>11</v>
       </c>
       <c r="R18" t="s">
+        <v>577</v>
+      </c>
+      <c r="S18" t="s">
+        <v>578</v>
+      </c>
+      <c r="T18" t="s">
+        <v>573</v>
+      </c>
+      <c r="U18" t="s">
+        <v>574</v>
+      </c>
+      <c r="V18" t="s">
         <v>62</v>
       </c>
-      <c r="S18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>56</v>
       </c>
@@ -3733,13 +3974,25 @@
         <v>11</v>
       </c>
       <c r="R19" t="s">
+        <v>577</v>
+      </c>
+      <c r="S19" t="s">
+        <v>578</v>
+      </c>
+      <c r="T19" t="s">
+        <v>573</v>
+      </c>
+      <c r="U19" t="s">
+        <v>574</v>
+      </c>
+      <c r="V19" t="s">
         <v>65</v>
       </c>
-      <c r="S19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>56</v>
       </c>
@@ -3792,13 +4045,25 @@
         <v>11</v>
       </c>
       <c r="R20" t="s">
+        <v>577</v>
+      </c>
+      <c r="S20" t="s">
+        <v>578</v>
+      </c>
+      <c r="T20" t="s">
+        <v>573</v>
+      </c>
+      <c r="U20" t="s">
+        <v>574</v>
+      </c>
+      <c r="V20" t="s">
         <v>68</v>
       </c>
-      <c r="S20">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>56</v>
       </c>
@@ -3851,13 +4116,25 @@
         <v>11</v>
       </c>
       <c r="R21" t="s">
+        <v>577</v>
+      </c>
+      <c r="S21" t="s">
+        <v>578</v>
+      </c>
+      <c r="T21" t="s">
+        <v>573</v>
+      </c>
+      <c r="U21" t="s">
+        <v>574</v>
+      </c>
+      <c r="V21" t="s">
         <v>71</v>
       </c>
-      <c r="S21">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>56</v>
       </c>
@@ -3910,13 +4187,25 @@
         <v>11</v>
       </c>
       <c r="R22" t="s">
+        <v>577</v>
+      </c>
+      <c r="S22" t="s">
+        <v>578</v>
+      </c>
+      <c r="T22" t="s">
+        <v>573</v>
+      </c>
+      <c r="U22" t="s">
+        <v>574</v>
+      </c>
+      <c r="V22" t="s">
         <v>74</v>
       </c>
-      <c r="S22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>56</v>
       </c>
@@ -3969,13 +4258,25 @@
         <v>11</v>
       </c>
       <c r="R23" t="s">
+        <v>577</v>
+      </c>
+      <c r="S23" t="s">
+        <v>578</v>
+      </c>
+      <c r="T23" t="s">
+        <v>573</v>
+      </c>
+      <c r="U23" t="s">
+        <v>574</v>
+      </c>
+      <c r="V23" t="s">
         <v>77</v>
       </c>
-      <c r="S23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>56</v>
       </c>
@@ -4028,13 +4329,25 @@
         <v>11</v>
       </c>
       <c r="R24" t="s">
+        <v>577</v>
+      </c>
+      <c r="S24" t="s">
+        <v>578</v>
+      </c>
+      <c r="T24" t="s">
+        <v>573</v>
+      </c>
+      <c r="U24" t="s">
+        <v>574</v>
+      </c>
+      <c r="V24" t="s">
         <v>80</v>
       </c>
-      <c r="S24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>56</v>
       </c>
@@ -4087,13 +4400,25 @@
         <v>11</v>
       </c>
       <c r="R25" t="s">
+        <v>577</v>
+      </c>
+      <c r="S25" t="s">
+        <v>578</v>
+      </c>
+      <c r="T25" t="s">
+        <v>573</v>
+      </c>
+      <c r="U25" t="s">
+        <v>574</v>
+      </c>
+      <c r="V25" t="s">
         <v>84</v>
       </c>
-      <c r="S25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>56</v>
       </c>
@@ -4146,13 +4471,25 @@
         <v>11</v>
       </c>
       <c r="R26" t="s">
+        <v>577</v>
+      </c>
+      <c r="S26" t="s">
+        <v>578</v>
+      </c>
+      <c r="T26" t="s">
+        <v>573</v>
+      </c>
+      <c r="U26" t="s">
+        <v>574</v>
+      </c>
+      <c r="V26" t="s">
         <v>87</v>
       </c>
-      <c r="S26">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>56</v>
       </c>
@@ -4205,13 +4542,25 @@
         <v>11</v>
       </c>
       <c r="R27" t="s">
+        <v>577</v>
+      </c>
+      <c r="S27" t="s">
+        <v>578</v>
+      </c>
+      <c r="T27" t="s">
+        <v>573</v>
+      </c>
+      <c r="U27" t="s">
+        <v>574</v>
+      </c>
+      <c r="V27" t="s">
         <v>90</v>
       </c>
-      <c r="S27">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
@@ -4264,13 +4613,25 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
+        <v>577</v>
+      </c>
+      <c r="S28" t="s">
+        <v>578</v>
+      </c>
+      <c r="T28" t="s">
+        <v>573</v>
+      </c>
+      <c r="U28" t="s">
+        <v>574</v>
+      </c>
+      <c r="V28" t="s">
         <v>93</v>
       </c>
-      <c r="S28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>56</v>
       </c>
@@ -4323,13 +4684,25 @@
         <v>11</v>
       </c>
       <c r="R29" t="s">
+        <v>577</v>
+      </c>
+      <c r="S29" t="s">
+        <v>578</v>
+      </c>
+      <c r="T29" t="s">
+        <v>573</v>
+      </c>
+      <c r="U29" t="s">
+        <v>574</v>
+      </c>
+      <c r="V29" t="s">
         <v>96</v>
       </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -4381,11 +4754,23 @@
       <c r="Q30" t="s">
         <v>11</v>
       </c>
-      <c r="S30">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>577</v>
+      </c>
+      <c r="S30" t="s">
+        <v>578</v>
+      </c>
+      <c r="T30" t="s">
+        <v>573</v>
+      </c>
+      <c r="U30" t="s">
+        <v>574</v>
+      </c>
+      <c r="W30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -4438,13 +4823,25 @@
         <v>11</v>
       </c>
       <c r="R31" t="s">
+        <v>577</v>
+      </c>
+      <c r="S31" t="s">
+        <v>578</v>
+      </c>
+      <c r="T31" t="s">
+        <v>573</v>
+      </c>
+      <c r="U31" t="s">
+        <v>574</v>
+      </c>
+      <c r="V31" t="s">
         <v>101</v>
       </c>
-      <c r="S31">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>56</v>
       </c>
@@ -4496,11 +4893,23 @@
       <c r="Q32" t="s">
         <v>11</v>
       </c>
-      <c r="S32">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>577</v>
+      </c>
+      <c r="S32" t="s">
+        <v>578</v>
+      </c>
+      <c r="T32" t="s">
+        <v>573</v>
+      </c>
+      <c r="U32" t="s">
+        <v>574</v>
+      </c>
+      <c r="W32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>56</v>
       </c>
@@ -4553,13 +4962,25 @@
         <v>11</v>
       </c>
       <c r="R33" t="s">
+        <v>577</v>
+      </c>
+      <c r="S33" t="s">
+        <v>578</v>
+      </c>
+      <c r="T33" t="s">
+        <v>573</v>
+      </c>
+      <c r="U33" t="s">
+        <v>574</v>
+      </c>
+      <c r="V33" t="s">
         <v>106</v>
       </c>
-      <c r="S33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>56</v>
       </c>
@@ -4612,13 +5033,25 @@
         <v>11</v>
       </c>
       <c r="R34" t="s">
+        <v>577</v>
+      </c>
+      <c r="S34" t="s">
+        <v>578</v>
+      </c>
+      <c r="T34" t="s">
+        <v>573</v>
+      </c>
+      <c r="U34" t="s">
+        <v>574</v>
+      </c>
+      <c r="V34" t="s">
         <v>109</v>
       </c>
-      <c r="S34">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -4671,13 +5104,25 @@
         <v>11</v>
       </c>
       <c r="R35" t="s">
+        <v>577</v>
+      </c>
+      <c r="S35" t="s">
+        <v>578</v>
+      </c>
+      <c r="T35" t="s">
+        <v>573</v>
+      </c>
+      <c r="U35" t="s">
+        <v>574</v>
+      </c>
+      <c r="V35" t="s">
         <v>112</v>
       </c>
-      <c r="S35">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>56</v>
       </c>
@@ -4730,13 +5175,25 @@
         <v>11</v>
       </c>
       <c r="R36" t="s">
+        <v>577</v>
+      </c>
+      <c r="S36" t="s">
+        <v>578</v>
+      </c>
+      <c r="T36" t="s">
+        <v>573</v>
+      </c>
+      <c r="U36" t="s">
+        <v>574</v>
+      </c>
+      <c r="V36" t="s">
         <v>115</v>
       </c>
-      <c r="S36">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>56</v>
       </c>
@@ -4789,13 +5246,25 @@
         <v>11</v>
       </c>
       <c r="R37" t="s">
+        <v>577</v>
+      </c>
+      <c r="S37" t="s">
+        <v>578</v>
+      </c>
+      <c r="T37" t="s">
+        <v>573</v>
+      </c>
+      <c r="U37" t="s">
+        <v>574</v>
+      </c>
+      <c r="V37" t="s">
         <v>118</v>
       </c>
-      <c r="S37">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>56</v>
       </c>
@@ -4848,13 +5317,25 @@
         <v>11</v>
       </c>
       <c r="R38" t="s">
+        <v>577</v>
+      </c>
+      <c r="S38" t="s">
+        <v>578</v>
+      </c>
+      <c r="T38" t="s">
+        <v>573</v>
+      </c>
+      <c r="U38" t="s">
+        <v>574</v>
+      </c>
+      <c r="V38" t="s">
         <v>121</v>
       </c>
-      <c r="S38">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>56</v>
       </c>
@@ -4907,13 +5388,25 @@
         <v>11</v>
       </c>
       <c r="R39" t="s">
+        <v>577</v>
+      </c>
+      <c r="S39" t="s">
+        <v>578</v>
+      </c>
+      <c r="T39" t="s">
+        <v>573</v>
+      </c>
+      <c r="U39" t="s">
+        <v>574</v>
+      </c>
+      <c r="V39" t="s">
         <v>124</v>
       </c>
-      <c r="S39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>56</v>
       </c>
@@ -4966,13 +5459,25 @@
         <v>11</v>
       </c>
       <c r="R40" t="s">
+        <v>577</v>
+      </c>
+      <c r="S40" t="s">
+        <v>578</v>
+      </c>
+      <c r="T40" t="s">
+        <v>573</v>
+      </c>
+      <c r="U40" t="s">
+        <v>574</v>
+      </c>
+      <c r="V40" t="s">
         <v>127</v>
       </c>
-      <c r="S40">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>56</v>
       </c>
@@ -5025,13 +5530,25 @@
         <v>11</v>
       </c>
       <c r="R41" t="s">
+        <v>577</v>
+      </c>
+      <c r="S41" t="s">
+        <v>578</v>
+      </c>
+      <c r="T41" t="s">
+        <v>573</v>
+      </c>
+      <c r="U41" t="s">
+        <v>574</v>
+      </c>
+      <c r="V41" t="s">
         <v>130</v>
       </c>
-      <c r="S41">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -5084,13 +5601,25 @@
         <v>11</v>
       </c>
       <c r="R42" t="s">
+        <v>577</v>
+      </c>
+      <c r="S42" t="s">
+        <v>578</v>
+      </c>
+      <c r="T42" t="s">
+        <v>573</v>
+      </c>
+      <c r="U42" t="s">
+        <v>574</v>
+      </c>
+      <c r="V42" t="s">
         <v>133</v>
       </c>
-      <c r="S42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>56</v>
       </c>
@@ -5143,13 +5672,25 @@
         <v>11</v>
       </c>
       <c r="R43" t="s">
+        <v>577</v>
+      </c>
+      <c r="S43" t="s">
+        <v>578</v>
+      </c>
+      <c r="T43" t="s">
+        <v>573</v>
+      </c>
+      <c r="U43" t="s">
+        <v>574</v>
+      </c>
+      <c r="V43" t="s">
         <v>136</v>
       </c>
-      <c r="S43">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>56</v>
       </c>
@@ -5202,13 +5743,25 @@
         <v>11</v>
       </c>
       <c r="R44" t="s">
+        <v>577</v>
+      </c>
+      <c r="S44" t="s">
+        <v>578</v>
+      </c>
+      <c r="T44" t="s">
+        <v>573</v>
+      </c>
+      <c r="U44" t="s">
+        <v>574</v>
+      </c>
+      <c r="V44" t="s">
         <v>139</v>
       </c>
-      <c r="S44">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -5261,13 +5814,25 @@
         <v>11</v>
       </c>
       <c r="R45" t="s">
+        <v>577</v>
+      </c>
+      <c r="S45" t="s">
+        <v>578</v>
+      </c>
+      <c r="T45" t="s">
+        <v>573</v>
+      </c>
+      <c r="U45" t="s">
+        <v>574</v>
+      </c>
+      <c r="V45" t="s">
         <v>142</v>
       </c>
-      <c r="S45">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56</v>
       </c>
@@ -5320,13 +5885,25 @@
         <v>11</v>
       </c>
       <c r="R46" t="s">
+        <v>577</v>
+      </c>
+      <c r="S46" t="s">
+        <v>578</v>
+      </c>
+      <c r="T46" t="s">
+        <v>573</v>
+      </c>
+      <c r="U46" t="s">
+        <v>574</v>
+      </c>
+      <c r="V46" t="s">
         <v>145</v>
       </c>
-      <c r="S46">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>56</v>
       </c>
@@ -5379,13 +5956,25 @@
         <v>11</v>
       </c>
       <c r="R47" t="s">
+        <v>577</v>
+      </c>
+      <c r="S47" t="s">
+        <v>578</v>
+      </c>
+      <c r="T47" t="s">
+        <v>573</v>
+      </c>
+      <c r="U47" t="s">
+        <v>574</v>
+      </c>
+      <c r="V47" t="s">
         <v>148</v>
       </c>
-      <c r="S47">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -5437,11 +6026,23 @@
       <c r="Q48" t="s">
         <v>11</v>
       </c>
-      <c r="S48">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>577</v>
+      </c>
+      <c r="S48" t="s">
+        <v>578</v>
+      </c>
+      <c r="T48" t="s">
+        <v>573</v>
+      </c>
+      <c r="U48" t="s">
+        <v>574</v>
+      </c>
+      <c r="W48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>56</v>
       </c>
@@ -5494,13 +6095,25 @@
         <v>11</v>
       </c>
       <c r="R49" t="s">
+        <v>577</v>
+      </c>
+      <c r="S49" t="s">
+        <v>578</v>
+      </c>
+      <c r="T49" t="s">
+        <v>573</v>
+      </c>
+      <c r="U49" t="s">
+        <v>574</v>
+      </c>
+      <c r="V49" t="s">
         <v>153</v>
       </c>
-      <c r="S49">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>56</v>
       </c>
@@ -5552,11 +6165,23 @@
       <c r="Q50" t="s">
         <v>11</v>
       </c>
-      <c r="S50">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>577</v>
+      </c>
+      <c r="S50" t="s">
+        <v>578</v>
+      </c>
+      <c r="T50" t="s">
+        <v>573</v>
+      </c>
+      <c r="U50" t="s">
+        <v>574</v>
+      </c>
+      <c r="W50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -5608,11 +6233,23 @@
       <c r="Q51" t="s">
         <v>11</v>
       </c>
-      <c r="S51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>577</v>
+      </c>
+      <c r="S51" t="s">
+        <v>578</v>
+      </c>
+      <c r="T51" t="s">
+        <v>573</v>
+      </c>
+      <c r="U51" t="s">
+        <v>574</v>
+      </c>
+      <c r="W51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
@@ -5664,11 +6301,23 @@
       <c r="Q52" t="s">
         <v>11</v>
       </c>
-      <c r="S52">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>577</v>
+      </c>
+      <c r="S52" t="s">
+        <v>578</v>
+      </c>
+      <c r="T52" t="s">
+        <v>573</v>
+      </c>
+      <c r="U52" t="s">
+        <v>574</v>
+      </c>
+      <c r="W52">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -5721,13 +6370,25 @@
         <v>11</v>
       </c>
       <c r="R53" t="s">
+        <v>577</v>
+      </c>
+      <c r="S53" t="s">
+        <v>578</v>
+      </c>
+      <c r="T53" t="s">
+        <v>573</v>
+      </c>
+      <c r="U53" t="s">
+        <v>574</v>
+      </c>
+      <c r="V53" t="s">
         <v>162</v>
       </c>
-      <c r="S53">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -5780,13 +6441,25 @@
         <v>11</v>
       </c>
       <c r="R54" t="s">
+        <v>577</v>
+      </c>
+      <c r="S54" t="s">
+        <v>578</v>
+      </c>
+      <c r="T54" t="s">
+        <v>573</v>
+      </c>
+      <c r="U54" t="s">
+        <v>574</v>
+      </c>
+      <c r="V54" t="s">
         <v>165</v>
       </c>
-      <c r="S54">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
@@ -5839,13 +6512,25 @@
         <v>11</v>
       </c>
       <c r="R55" t="s">
+        <v>577</v>
+      </c>
+      <c r="S55" t="s">
+        <v>578</v>
+      </c>
+      <c r="T55" t="s">
+        <v>573</v>
+      </c>
+      <c r="U55" t="s">
+        <v>574</v>
+      </c>
+      <c r="V55" t="s">
         <v>168</v>
       </c>
-      <c r="S55">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5898,13 +6583,25 @@
         <v>11</v>
       </c>
       <c r="R56" t="s">
+        <v>577</v>
+      </c>
+      <c r="S56" t="s">
+        <v>578</v>
+      </c>
+      <c r="T56" t="s">
+        <v>573</v>
+      </c>
+      <c r="U56" t="s">
+        <v>574</v>
+      </c>
+      <c r="V56" t="s">
         <v>172</v>
       </c>
-      <c r="S56">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5957,13 +6654,25 @@
         <v>11</v>
       </c>
       <c r="R57" t="s">
+        <v>577</v>
+      </c>
+      <c r="S57" t="s">
+        <v>578</v>
+      </c>
+      <c r="T57" t="s">
+        <v>573</v>
+      </c>
+      <c r="U57" t="s">
+        <v>574</v>
+      </c>
+      <c r="V57" t="s">
         <v>175</v>
       </c>
-      <c r="S57">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6016,13 +6725,25 @@
         <v>11</v>
       </c>
       <c r="R58" t="s">
+        <v>577</v>
+      </c>
+      <c r="S58" t="s">
+        <v>578</v>
+      </c>
+      <c r="T58" t="s">
+        <v>573</v>
+      </c>
+      <c r="U58" t="s">
+        <v>574</v>
+      </c>
+      <c r="V58" t="s">
         <v>178</v>
       </c>
-      <c r="S58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -6075,13 +6796,25 @@
         <v>11</v>
       </c>
       <c r="R59" t="s">
+        <v>577</v>
+      </c>
+      <c r="S59" t="s">
+        <v>578</v>
+      </c>
+      <c r="T59" t="s">
+        <v>573</v>
+      </c>
+      <c r="U59" t="s">
+        <v>574</v>
+      </c>
+      <c r="V59" t="s">
         <v>181</v>
       </c>
-      <c r="S59">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -6134,13 +6867,25 @@
         <v>11</v>
       </c>
       <c r="R60" t="s">
+        <v>577</v>
+      </c>
+      <c r="S60" t="s">
+        <v>578</v>
+      </c>
+      <c r="T60" t="s">
+        <v>573</v>
+      </c>
+      <c r="U60" t="s">
+        <v>574</v>
+      </c>
+      <c r="V60" t="s">
         <v>184</v>
       </c>
-      <c r="S60">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -6193,13 +6938,25 @@
         <v>11</v>
       </c>
       <c r="R61" t="s">
+        <v>577</v>
+      </c>
+      <c r="S61" t="s">
+        <v>578</v>
+      </c>
+      <c r="T61" t="s">
+        <v>573</v>
+      </c>
+      <c r="U61" t="s">
+        <v>574</v>
+      </c>
+      <c r="V61" t="s">
         <v>187</v>
       </c>
-      <c r="S61">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>56</v>
       </c>
@@ -6252,13 +7009,25 @@
         <v>11</v>
       </c>
       <c r="R62" t="s">
+        <v>577</v>
+      </c>
+      <c r="S62" t="s">
+        <v>578</v>
+      </c>
+      <c r="T62" t="s">
+        <v>573</v>
+      </c>
+      <c r="U62" t="s">
+        <v>574</v>
+      </c>
+      <c r="V62" t="s">
         <v>190</v>
       </c>
-      <c r="S62">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
@@ -6311,13 +7080,25 @@
         <v>11</v>
       </c>
       <c r="R63" t="s">
+        <v>577</v>
+      </c>
+      <c r="S63" t="s">
+        <v>578</v>
+      </c>
+      <c r="T63" t="s">
+        <v>573</v>
+      </c>
+      <c r="U63" t="s">
+        <v>574</v>
+      </c>
+      <c r="V63" t="s">
         <v>193</v>
       </c>
-      <c r="S63">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
@@ -6370,13 +7151,25 @@
         <v>11</v>
       </c>
       <c r="R64" t="s">
+        <v>577</v>
+      </c>
+      <c r="S64" t="s">
+        <v>578</v>
+      </c>
+      <c r="T64" t="s">
+        <v>573</v>
+      </c>
+      <c r="U64" t="s">
+        <v>574</v>
+      </c>
+      <c r="V64" t="s">
         <v>196</v>
       </c>
-      <c r="S64">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>56</v>
       </c>
@@ -6429,13 +7222,25 @@
         <v>11</v>
       </c>
       <c r="R65" t="s">
+        <v>577</v>
+      </c>
+      <c r="S65" t="s">
+        <v>578</v>
+      </c>
+      <c r="T65" t="s">
+        <v>573</v>
+      </c>
+      <c r="U65" t="s">
+        <v>574</v>
+      </c>
+      <c r="V65" t="s">
         <v>199</v>
       </c>
-      <c r="S65">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -6488,13 +7293,25 @@
         <v>11</v>
       </c>
       <c r="R66" t="s">
+        <v>577</v>
+      </c>
+      <c r="S66" t="s">
+        <v>578</v>
+      </c>
+      <c r="T66" t="s">
+        <v>573</v>
+      </c>
+      <c r="U66" t="s">
+        <v>574</v>
+      </c>
+      <c r="V66" t="s">
         <v>202</v>
       </c>
-      <c r="S66">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>56</v>
       </c>
@@ -6547,13 +7364,25 @@
         <v>11</v>
       </c>
       <c r="R67" t="s">
+        <v>577</v>
+      </c>
+      <c r="S67" t="s">
+        <v>578</v>
+      </c>
+      <c r="T67" t="s">
+        <v>573</v>
+      </c>
+      <c r="U67" t="s">
+        <v>574</v>
+      </c>
+      <c r="V67" t="s">
         <v>205</v>
       </c>
-      <c r="S67">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>56</v>
       </c>
@@ -6606,13 +7435,25 @@
         <v>11</v>
       </c>
       <c r="R68" t="s">
+        <v>577</v>
+      </c>
+      <c r="S68" t="s">
+        <v>578</v>
+      </c>
+      <c r="T68" t="s">
+        <v>573</v>
+      </c>
+      <c r="U68" t="s">
+        <v>574</v>
+      </c>
+      <c r="V68" t="s">
         <v>208</v>
       </c>
-      <c r="S68">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>56</v>
       </c>
@@ -6665,13 +7506,25 @@
         <v>11</v>
       </c>
       <c r="R69" t="s">
+        <v>577</v>
+      </c>
+      <c r="S69" t="s">
+        <v>578</v>
+      </c>
+      <c r="T69" t="s">
+        <v>573</v>
+      </c>
+      <c r="U69" t="s">
+        <v>574</v>
+      </c>
+      <c r="V69" t="s">
         <v>211</v>
       </c>
-      <c r="S69">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>56</v>
       </c>
@@ -6724,13 +7577,25 @@
         <v>11</v>
       </c>
       <c r="R70" t="s">
+        <v>577</v>
+      </c>
+      <c r="S70" t="s">
+        <v>578</v>
+      </c>
+      <c r="T70" t="s">
+        <v>573</v>
+      </c>
+      <c r="U70" t="s">
+        <v>574</v>
+      </c>
+      <c r="V70" t="s">
         <v>214</v>
       </c>
-      <c r="S70">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>56</v>
       </c>
@@ -6783,13 +7648,25 @@
         <v>11</v>
       </c>
       <c r="R71" t="s">
+        <v>577</v>
+      </c>
+      <c r="S71" t="s">
+        <v>578</v>
+      </c>
+      <c r="T71" t="s">
+        <v>573</v>
+      </c>
+      <c r="U71" t="s">
+        <v>574</v>
+      </c>
+      <c r="V71" t="s">
         <v>217</v>
       </c>
-      <c r="S71">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6842,13 +7719,25 @@
         <v>11</v>
       </c>
       <c r="R72" t="s">
+        <v>577</v>
+      </c>
+      <c r="S72" t="s">
+        <v>578</v>
+      </c>
+      <c r="T72" t="s">
+        <v>573</v>
+      </c>
+      <c r="U72" t="s">
+        <v>574</v>
+      </c>
+      <c r="V72" t="s">
         <v>220</v>
       </c>
-      <c r="S72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>56</v>
       </c>
@@ -6901,13 +7790,25 @@
         <v>11</v>
       </c>
       <c r="R73" t="s">
+        <v>577</v>
+      </c>
+      <c r="S73" t="s">
+        <v>578</v>
+      </c>
+      <c r="T73" t="s">
+        <v>573</v>
+      </c>
+      <c r="U73" t="s">
+        <v>574</v>
+      </c>
+      <c r="V73" t="s">
         <v>223</v>
       </c>
-      <c r="S73">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>56</v>
       </c>
@@ -6960,13 +7861,25 @@
         <v>11</v>
       </c>
       <c r="R74" t="s">
+        <v>577</v>
+      </c>
+      <c r="S74" t="s">
+        <v>578</v>
+      </c>
+      <c r="T74" t="s">
+        <v>573</v>
+      </c>
+      <c r="U74" t="s">
+        <v>574</v>
+      </c>
+      <c r="V74" t="s">
         <v>226</v>
       </c>
-      <c r="S74">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>56</v>
       </c>
@@ -7019,13 +7932,25 @@
         <v>11</v>
       </c>
       <c r="R75" t="s">
+        <v>577</v>
+      </c>
+      <c r="S75" t="s">
+        <v>578</v>
+      </c>
+      <c r="T75" t="s">
+        <v>573</v>
+      </c>
+      <c r="U75" t="s">
+        <v>574</v>
+      </c>
+      <c r="V75" t="s">
         <v>229</v>
       </c>
-      <c r="S75">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>56</v>
       </c>
@@ -7078,13 +8003,25 @@
         <v>11</v>
       </c>
       <c r="R76" t="s">
+        <v>577</v>
+      </c>
+      <c r="S76" t="s">
+        <v>578</v>
+      </c>
+      <c r="T76" t="s">
+        <v>573</v>
+      </c>
+      <c r="U76" t="s">
+        <v>574</v>
+      </c>
+      <c r="V76" t="s">
         <v>232</v>
       </c>
-      <c r="S76">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>56</v>
       </c>
@@ -7137,13 +8074,25 @@
         <v>11</v>
       </c>
       <c r="R77" t="s">
+        <v>577</v>
+      </c>
+      <c r="S77" t="s">
+        <v>578</v>
+      </c>
+      <c r="T77" t="s">
+        <v>573</v>
+      </c>
+      <c r="U77" t="s">
+        <v>574</v>
+      </c>
+      <c r="V77" t="s">
         <v>235</v>
       </c>
-      <c r="S77">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>56</v>
       </c>
@@ -7196,13 +8145,25 @@
         <v>11</v>
       </c>
       <c r="R78" t="s">
+        <v>577</v>
+      </c>
+      <c r="S78" t="s">
+        <v>578</v>
+      </c>
+      <c r="T78" t="s">
+        <v>573</v>
+      </c>
+      <c r="U78" t="s">
+        <v>574</v>
+      </c>
+      <c r="V78" t="s">
         <v>239</v>
       </c>
-      <c r="S78">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>56</v>
       </c>
@@ -7255,13 +8216,25 @@
         <v>11</v>
       </c>
       <c r="R79" t="s">
+        <v>577</v>
+      </c>
+      <c r="S79" t="s">
+        <v>578</v>
+      </c>
+      <c r="T79" t="s">
+        <v>573</v>
+      </c>
+      <c r="U79" t="s">
+        <v>574</v>
+      </c>
+      <c r="V79" t="s">
         <v>242</v>
       </c>
-      <c r="S79">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>56</v>
       </c>
@@ -7314,13 +8287,25 @@
         <v>11</v>
       </c>
       <c r="R80" t="s">
+        <v>577</v>
+      </c>
+      <c r="S80" t="s">
+        <v>578</v>
+      </c>
+      <c r="T80" t="s">
+        <v>573</v>
+      </c>
+      <c r="U80" t="s">
+        <v>574</v>
+      </c>
+      <c r="V80" t="s">
         <v>245</v>
       </c>
-      <c r="S80">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>56</v>
       </c>
@@ -7373,13 +8358,25 @@
         <v>11</v>
       </c>
       <c r="R81" t="s">
+        <v>577</v>
+      </c>
+      <c r="S81" t="s">
+        <v>578</v>
+      </c>
+      <c r="T81" t="s">
+        <v>573</v>
+      </c>
+      <c r="U81" t="s">
+        <v>574</v>
+      </c>
+      <c r="V81" t="s">
         <v>248</v>
       </c>
-      <c r="S81">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>56</v>
       </c>
@@ -7432,13 +8429,25 @@
         <v>11</v>
       </c>
       <c r="R82" t="s">
+        <v>577</v>
+      </c>
+      <c r="S82" t="s">
+        <v>578</v>
+      </c>
+      <c r="T82" t="s">
+        <v>573</v>
+      </c>
+      <c r="U82" t="s">
+        <v>574</v>
+      </c>
+      <c r="V82" t="s">
         <v>251</v>
       </c>
-      <c r="S82">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>56</v>
       </c>
@@ -7491,13 +8500,25 @@
         <v>11</v>
       </c>
       <c r="R83" t="s">
+        <v>577</v>
+      </c>
+      <c r="S83" t="s">
+        <v>578</v>
+      </c>
+      <c r="T83" t="s">
+        <v>573</v>
+      </c>
+      <c r="U83" t="s">
+        <v>574</v>
+      </c>
+      <c r="V83" t="s">
         <v>254</v>
       </c>
-      <c r="S83">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>56</v>
       </c>
@@ -7550,13 +8571,25 @@
         <v>11</v>
       </c>
       <c r="R84" t="s">
+        <v>577</v>
+      </c>
+      <c r="S84" t="s">
+        <v>578</v>
+      </c>
+      <c r="T84" t="s">
+        <v>573</v>
+      </c>
+      <c r="U84" t="s">
+        <v>574</v>
+      </c>
+      <c r="V84" t="s">
         <v>257</v>
       </c>
-      <c r="S84">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>56</v>
       </c>
@@ -7609,13 +8642,25 @@
         <v>11</v>
       </c>
       <c r="R85" t="s">
+        <v>577</v>
+      </c>
+      <c r="S85" t="s">
+        <v>578</v>
+      </c>
+      <c r="T85" t="s">
+        <v>573</v>
+      </c>
+      <c r="U85" t="s">
+        <v>574</v>
+      </c>
+      <c r="V85" t="s">
         <v>260</v>
       </c>
-      <c r="S85">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>56</v>
       </c>
@@ -7668,13 +8713,25 @@
         <v>11</v>
       </c>
       <c r="R86" t="s">
+        <v>577</v>
+      </c>
+      <c r="S86" t="s">
+        <v>578</v>
+      </c>
+      <c r="T86" t="s">
+        <v>573</v>
+      </c>
+      <c r="U86" t="s">
+        <v>574</v>
+      </c>
+      <c r="V86" t="s">
         <v>263</v>
       </c>
-      <c r="S86">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
@@ -7727,13 +8784,25 @@
         <v>11</v>
       </c>
       <c r="R87" t="s">
+        <v>577</v>
+      </c>
+      <c r="S87" t="s">
+        <v>578</v>
+      </c>
+      <c r="T87" t="s">
+        <v>573</v>
+      </c>
+      <c r="U87" t="s">
+        <v>574</v>
+      </c>
+      <c r="V87" t="s">
         <v>266</v>
       </c>
-      <c r="S87">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>56</v>
       </c>
@@ -7785,11 +8854,23 @@
       <c r="Q88" t="s">
         <v>11</v>
       </c>
-      <c r="S88">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>577</v>
+      </c>
+      <c r="S88" t="s">
+        <v>578</v>
+      </c>
+      <c r="T88" t="s">
+        <v>573</v>
+      </c>
+      <c r="U88" t="s">
+        <v>574</v>
+      </c>
+      <c r="W88">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
@@ -7842,13 +8923,25 @@
         <v>11</v>
       </c>
       <c r="R89" t="s">
+        <v>577</v>
+      </c>
+      <c r="S89" t="s">
+        <v>578</v>
+      </c>
+      <c r="T89" t="s">
+        <v>573</v>
+      </c>
+      <c r="U89" t="s">
+        <v>574</v>
+      </c>
+      <c r="V89" t="s">
         <v>271</v>
       </c>
-      <c r="S89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -7901,13 +8994,25 @@
         <v>11</v>
       </c>
       <c r="R90" t="s">
+        <v>577</v>
+      </c>
+      <c r="S90" t="s">
+        <v>578</v>
+      </c>
+      <c r="T90" t="s">
+        <v>573</v>
+      </c>
+      <c r="U90" t="s">
+        <v>574</v>
+      </c>
+      <c r="V90" t="s">
         <v>274</v>
       </c>
-      <c r="S90">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>56</v>
       </c>
@@ -7960,13 +9065,25 @@
         <v>11</v>
       </c>
       <c r="R91" t="s">
+        <v>577</v>
+      </c>
+      <c r="S91" t="s">
+        <v>578</v>
+      </c>
+      <c r="T91" t="s">
+        <v>573</v>
+      </c>
+      <c r="U91" t="s">
+        <v>574</v>
+      </c>
+      <c r="V91" t="s">
         <v>277</v>
       </c>
-      <c r="S91">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>56</v>
       </c>
@@ -8018,11 +9135,23 @@
       <c r="Q92" t="s">
         <v>11</v>
       </c>
-      <c r="S92">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>577</v>
+      </c>
+      <c r="S92" t="s">
+        <v>578</v>
+      </c>
+      <c r="T92" t="s">
+        <v>573</v>
+      </c>
+      <c r="U92" t="s">
+        <v>574</v>
+      </c>
+      <c r="W92">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>56</v>
       </c>
@@ -8075,13 +9204,25 @@
         <v>11</v>
       </c>
       <c r="R93" t="s">
+        <v>577</v>
+      </c>
+      <c r="S93" t="s">
+        <v>578</v>
+      </c>
+      <c r="T93" t="s">
+        <v>573</v>
+      </c>
+      <c r="U93" t="s">
+        <v>574</v>
+      </c>
+      <c r="V93" t="s">
         <v>282</v>
       </c>
-      <c r="S93">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>56</v>
       </c>
@@ -8134,13 +9275,25 @@
         <v>11</v>
       </c>
       <c r="R94" t="s">
+        <v>577</v>
+      </c>
+      <c r="S94" t="s">
+        <v>578</v>
+      </c>
+      <c r="T94" t="s">
+        <v>573</v>
+      </c>
+      <c r="U94" t="s">
+        <v>574</v>
+      </c>
+      <c r="V94" t="s">
         <v>285</v>
       </c>
-      <c r="S94">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>56</v>
       </c>
@@ -8193,13 +9346,25 @@
         <v>11</v>
       </c>
       <c r="R95" t="s">
+        <v>577</v>
+      </c>
+      <c r="S95" t="s">
+        <v>578</v>
+      </c>
+      <c r="T95" t="s">
+        <v>573</v>
+      </c>
+      <c r="U95" t="s">
+        <v>574</v>
+      </c>
+      <c r="V95" t="s">
         <v>288</v>
       </c>
-      <c r="S95">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>56</v>
       </c>
@@ -8252,13 +9417,25 @@
         <v>11</v>
       </c>
       <c r="R96" t="s">
+        <v>577</v>
+      </c>
+      <c r="S96" t="s">
+        <v>578</v>
+      </c>
+      <c r="T96" t="s">
+        <v>573</v>
+      </c>
+      <c r="U96" t="s">
+        <v>574</v>
+      </c>
+      <c r="V96" t="s">
         <v>291</v>
       </c>
-      <c r="S96">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>56</v>
       </c>
@@ -8311,13 +9488,25 @@
         <v>11</v>
       </c>
       <c r="R97" t="s">
+        <v>577</v>
+      </c>
+      <c r="S97" t="s">
+        <v>578</v>
+      </c>
+      <c r="T97" t="s">
+        <v>573</v>
+      </c>
+      <c r="U97" t="s">
+        <v>574</v>
+      </c>
+      <c r="V97" t="s">
         <v>294</v>
       </c>
-      <c r="S97">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>56</v>
       </c>
@@ -8370,13 +9559,25 @@
         <v>11</v>
       </c>
       <c r="R98" t="s">
+        <v>577</v>
+      </c>
+      <c r="S98" t="s">
+        <v>578</v>
+      </c>
+      <c r="T98" t="s">
+        <v>573</v>
+      </c>
+      <c r="U98" t="s">
+        <v>574</v>
+      </c>
+      <c r="V98" t="s">
         <v>297</v>
       </c>
-      <c r="S98">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>56</v>
       </c>
@@ -8429,13 +9630,25 @@
         <v>11</v>
       </c>
       <c r="R99" t="s">
+        <v>577</v>
+      </c>
+      <c r="S99" t="s">
+        <v>578</v>
+      </c>
+      <c r="T99" t="s">
+        <v>573</v>
+      </c>
+      <c r="U99" t="s">
+        <v>574</v>
+      </c>
+      <c r="V99" t="s">
         <v>301</v>
       </c>
-      <c r="S99">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>56</v>
       </c>
@@ -8488,13 +9701,25 @@
         <v>11</v>
       </c>
       <c r="R100" t="s">
+        <v>577</v>
+      </c>
+      <c r="S100" t="s">
+        <v>578</v>
+      </c>
+      <c r="T100" t="s">
+        <v>573</v>
+      </c>
+      <c r="U100" t="s">
+        <v>574</v>
+      </c>
+      <c r="V100" t="s">
         <v>304</v>
       </c>
-      <c r="S100">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>56</v>
       </c>
@@ -8547,13 +9772,25 @@
         <v>11</v>
       </c>
       <c r="R101" t="s">
+        <v>577</v>
+      </c>
+      <c r="S101" t="s">
+        <v>578</v>
+      </c>
+      <c r="T101" t="s">
+        <v>573</v>
+      </c>
+      <c r="U101" t="s">
+        <v>574</v>
+      </c>
+      <c r="V101" t="s">
         <v>307</v>
       </c>
-      <c r="S101">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>56</v>
       </c>
@@ -8606,13 +9843,25 @@
         <v>11</v>
       </c>
       <c r="R102" t="s">
+        <v>577</v>
+      </c>
+      <c r="S102" t="s">
+        <v>578</v>
+      </c>
+      <c r="T102" t="s">
+        <v>573</v>
+      </c>
+      <c r="U102" t="s">
+        <v>574</v>
+      </c>
+      <c r="V102" t="s">
         <v>310</v>
       </c>
-      <c r="S102">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>56</v>
       </c>
@@ -8665,13 +9914,25 @@
         <v>11</v>
       </c>
       <c r="R103" t="s">
+        <v>577</v>
+      </c>
+      <c r="S103" t="s">
+        <v>578</v>
+      </c>
+      <c r="T103" t="s">
+        <v>573</v>
+      </c>
+      <c r="U103" t="s">
+        <v>574</v>
+      </c>
+      <c r="V103" t="s">
         <v>313</v>
       </c>
-      <c r="S103">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>56</v>
       </c>
@@ -8724,13 +9985,25 @@
         <v>11</v>
       </c>
       <c r="R104" t="s">
+        <v>577</v>
+      </c>
+      <c r="S104" t="s">
+        <v>578</v>
+      </c>
+      <c r="T104" t="s">
+        <v>573</v>
+      </c>
+      <c r="U104" t="s">
+        <v>574</v>
+      </c>
+      <c r="V104" t="s">
         <v>316</v>
       </c>
-      <c r="S104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>56</v>
       </c>
@@ -8783,13 +10056,25 @@
         <v>11</v>
       </c>
       <c r="R105" t="s">
+        <v>577</v>
+      </c>
+      <c r="S105" t="s">
+        <v>578</v>
+      </c>
+      <c r="T105" t="s">
+        <v>573</v>
+      </c>
+      <c r="U105" t="s">
+        <v>574</v>
+      </c>
+      <c r="V105" t="s">
         <v>319</v>
       </c>
-      <c r="S105">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>56</v>
       </c>
@@ -8842,13 +10127,25 @@
         <v>11</v>
       </c>
       <c r="R106" t="s">
+        <v>577</v>
+      </c>
+      <c r="S106" t="s">
+        <v>578</v>
+      </c>
+      <c r="T106" t="s">
+        <v>573</v>
+      </c>
+      <c r="U106" t="s">
+        <v>574</v>
+      </c>
+      <c r="V106" t="s">
         <v>322</v>
       </c>
-      <c r="S106">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>56</v>
       </c>
@@ -8901,13 +10198,25 @@
         <v>11</v>
       </c>
       <c r="R107" t="s">
+        <v>577</v>
+      </c>
+      <c r="S107" t="s">
+        <v>578</v>
+      </c>
+      <c r="T107" t="s">
+        <v>573</v>
+      </c>
+      <c r="U107" t="s">
+        <v>574</v>
+      </c>
+      <c r="V107" t="s">
         <v>325</v>
       </c>
-      <c r="S107">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>56</v>
       </c>
@@ -8960,13 +10269,25 @@
         <v>11</v>
       </c>
       <c r="R108" t="s">
+        <v>577</v>
+      </c>
+      <c r="S108" t="s">
+        <v>578</v>
+      </c>
+      <c r="T108" t="s">
+        <v>573</v>
+      </c>
+      <c r="U108" t="s">
+        <v>574</v>
+      </c>
+      <c r="V108" t="s">
         <v>328</v>
       </c>
-      <c r="S108">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>56</v>
       </c>
@@ -9019,13 +10340,25 @@
         <v>11</v>
       </c>
       <c r="R109" t="s">
+        <v>577</v>
+      </c>
+      <c r="S109" t="s">
+        <v>578</v>
+      </c>
+      <c r="T109" t="s">
+        <v>573</v>
+      </c>
+      <c r="U109" t="s">
+        <v>574</v>
+      </c>
+      <c r="V109" t="s">
         <v>332</v>
       </c>
-      <c r="S109">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>56</v>
       </c>
@@ -9078,13 +10411,25 @@
         <v>11</v>
       </c>
       <c r="R110" t="s">
+        <v>577</v>
+      </c>
+      <c r="S110" t="s">
+        <v>578</v>
+      </c>
+      <c r="T110" t="s">
+        <v>573</v>
+      </c>
+      <c r="U110" t="s">
+        <v>574</v>
+      </c>
+      <c r="V110" t="s">
         <v>335</v>
       </c>
-      <c r="S110">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>56</v>
       </c>
@@ -9137,13 +10482,25 @@
         <v>11</v>
       </c>
       <c r="R111" t="s">
+        <v>577</v>
+      </c>
+      <c r="S111" t="s">
+        <v>578</v>
+      </c>
+      <c r="T111" t="s">
+        <v>573</v>
+      </c>
+      <c r="U111" t="s">
+        <v>574</v>
+      </c>
+      <c r="V111" t="s">
         <v>338</v>
       </c>
-      <c r="S111">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>56</v>
       </c>
@@ -9196,13 +10553,25 @@
         <v>11</v>
       </c>
       <c r="R112" t="s">
+        <v>577</v>
+      </c>
+      <c r="S112" t="s">
+        <v>578</v>
+      </c>
+      <c r="T112" t="s">
+        <v>573</v>
+      </c>
+      <c r="U112" t="s">
+        <v>574</v>
+      </c>
+      <c r="V112" t="s">
         <v>341</v>
       </c>
-      <c r="S112">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>56</v>
       </c>
@@ -9255,13 +10624,25 @@
         <v>11</v>
       </c>
       <c r="R113" t="s">
+        <v>577</v>
+      </c>
+      <c r="S113" t="s">
+        <v>578</v>
+      </c>
+      <c r="T113" t="s">
+        <v>573</v>
+      </c>
+      <c r="U113" t="s">
+        <v>574</v>
+      </c>
+      <c r="V113" t="s">
         <v>344</v>
       </c>
-      <c r="S113">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -9314,13 +10695,25 @@
         <v>11</v>
       </c>
       <c r="R114" t="s">
+        <v>577</v>
+      </c>
+      <c r="S114" t="s">
+        <v>578</v>
+      </c>
+      <c r="T114" t="s">
+        <v>573</v>
+      </c>
+      <c r="U114" t="s">
+        <v>574</v>
+      </c>
+      <c r="V114" t="s">
         <v>347</v>
       </c>
-      <c r="S114">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>56</v>
       </c>
@@ -9373,13 +10766,25 @@
         <v>11</v>
       </c>
       <c r="R115" t="s">
+        <v>577</v>
+      </c>
+      <c r="S115" t="s">
+        <v>578</v>
+      </c>
+      <c r="T115" t="s">
+        <v>573</v>
+      </c>
+      <c r="U115" t="s">
+        <v>574</v>
+      </c>
+      <c r="V115" t="s">
         <v>350</v>
       </c>
-      <c r="S115">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>56</v>
       </c>
@@ -9432,13 +10837,25 @@
         <v>11</v>
       </c>
       <c r="R116" t="s">
+        <v>577</v>
+      </c>
+      <c r="S116" t="s">
+        <v>578</v>
+      </c>
+      <c r="T116" t="s">
+        <v>573</v>
+      </c>
+      <c r="U116" t="s">
+        <v>574</v>
+      </c>
+      <c r="V116" t="s">
         <v>353</v>
       </c>
-      <c r="S116">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>56</v>
       </c>
@@ -9491,13 +10908,25 @@
         <v>11</v>
       </c>
       <c r="R117" t="s">
+        <v>577</v>
+      </c>
+      <c r="S117" t="s">
+        <v>578</v>
+      </c>
+      <c r="T117" t="s">
+        <v>573</v>
+      </c>
+      <c r="U117" t="s">
+        <v>574</v>
+      </c>
+      <c r="V117" t="s">
         <v>356</v>
       </c>
-      <c r="S117">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56</v>
       </c>
@@ -9550,13 +10979,25 @@
         <v>11</v>
       </c>
       <c r="R118" t="s">
+        <v>577</v>
+      </c>
+      <c r="S118" t="s">
+        <v>578</v>
+      </c>
+      <c r="T118" t="s">
+        <v>573</v>
+      </c>
+      <c r="U118" t="s">
+        <v>574</v>
+      </c>
+      <c r="V118" t="s">
         <v>359</v>
       </c>
-      <c r="S118">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>56</v>
       </c>
@@ -9609,13 +11050,25 @@
         <v>11</v>
       </c>
       <c r="R119" t="s">
+        <v>577</v>
+      </c>
+      <c r="S119" t="s">
+        <v>578</v>
+      </c>
+      <c r="T119" t="s">
+        <v>573</v>
+      </c>
+      <c r="U119" t="s">
+        <v>574</v>
+      </c>
+      <c r="V119" t="s">
         <v>362</v>
       </c>
-      <c r="S119">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9668,13 +11121,25 @@
         <v>11</v>
       </c>
       <c r="R120" t="s">
+        <v>577</v>
+      </c>
+      <c r="S120" t="s">
+        <v>578</v>
+      </c>
+      <c r="T120" t="s">
+        <v>573</v>
+      </c>
+      <c r="U120" t="s">
+        <v>574</v>
+      </c>
+      <c r="V120" t="s">
         <v>365</v>
       </c>
-      <c r="S120">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W120">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>56</v>
       </c>
@@ -9727,13 +11192,25 @@
         <v>11</v>
       </c>
       <c r="R121" t="s">
+        <v>577</v>
+      </c>
+      <c r="S121" t="s">
+        <v>578</v>
+      </c>
+      <c r="T121" t="s">
+        <v>573</v>
+      </c>
+      <c r="U121" t="s">
+        <v>574</v>
+      </c>
+      <c r="V121" t="s">
         <v>368</v>
       </c>
-      <c r="S121">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>56</v>
       </c>
@@ -9786,13 +11263,25 @@
         <v>11</v>
       </c>
       <c r="R122" t="s">
+        <v>577</v>
+      </c>
+      <c r="S122" t="s">
+        <v>578</v>
+      </c>
+      <c r="T122" t="s">
+        <v>573</v>
+      </c>
+      <c r="U122" t="s">
+        <v>574</v>
+      </c>
+      <c r="V122" t="s">
         <v>371</v>
       </c>
-      <c r="S122">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W122">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>56</v>
       </c>
@@ -9845,13 +11334,25 @@
         <v>11</v>
       </c>
       <c r="R123" t="s">
+        <v>577</v>
+      </c>
+      <c r="S123" t="s">
+        <v>578</v>
+      </c>
+      <c r="T123" t="s">
+        <v>573</v>
+      </c>
+      <c r="U123" t="s">
+        <v>574</v>
+      </c>
+      <c r="V123" t="s">
         <v>374</v>
       </c>
-      <c r="S123">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>56</v>
       </c>
@@ -9904,13 +11405,25 @@
         <v>11</v>
       </c>
       <c r="R124" t="s">
+        <v>577</v>
+      </c>
+      <c r="S124" t="s">
+        <v>578</v>
+      </c>
+      <c r="T124" t="s">
+        <v>573</v>
+      </c>
+      <c r="U124" t="s">
+        <v>574</v>
+      </c>
+      <c r="V124" t="s">
         <v>377</v>
       </c>
-      <c r="S124">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W124">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>56</v>
       </c>
@@ -9963,13 +11476,25 @@
         <v>11</v>
       </c>
       <c r="R125" t="s">
+        <v>577</v>
+      </c>
+      <c r="S125" t="s">
+        <v>578</v>
+      </c>
+      <c r="T125" t="s">
+        <v>573</v>
+      </c>
+      <c r="U125" t="s">
+        <v>574</v>
+      </c>
+      <c r="V125" t="s">
         <v>380</v>
       </c>
-      <c r="S125">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>56</v>
       </c>
@@ -10022,13 +11547,25 @@
         <v>11</v>
       </c>
       <c r="R126" t="s">
+        <v>577</v>
+      </c>
+      <c r="S126" t="s">
+        <v>578</v>
+      </c>
+      <c r="T126" t="s">
+        <v>573</v>
+      </c>
+      <c r="U126" t="s">
+        <v>574</v>
+      </c>
+      <c r="V126" t="s">
         <v>383</v>
       </c>
-      <c r="S126">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>56</v>
       </c>
@@ -10081,13 +11618,25 @@
         <v>11</v>
       </c>
       <c r="R127" t="s">
+        <v>577</v>
+      </c>
+      <c r="S127" t="s">
+        <v>578</v>
+      </c>
+      <c r="T127" t="s">
+        <v>573</v>
+      </c>
+      <c r="U127" t="s">
+        <v>574</v>
+      </c>
+      <c r="V127" t="s">
         <v>386</v>
       </c>
-      <c r="S127">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W127">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>56</v>
       </c>
@@ -10140,13 +11689,25 @@
         <v>11</v>
       </c>
       <c r="R128" t="s">
+        <v>577</v>
+      </c>
+      <c r="S128" t="s">
+        <v>578</v>
+      </c>
+      <c r="T128" t="s">
+        <v>573</v>
+      </c>
+      <c r="U128" t="s">
+        <v>574</v>
+      </c>
+      <c r="V128" t="s">
         <v>389</v>
       </c>
-      <c r="S128">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W128">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>56</v>
       </c>
@@ -10199,13 +11760,25 @@
         <v>11</v>
       </c>
       <c r="R129" t="s">
+        <v>577</v>
+      </c>
+      <c r="S129" t="s">
+        <v>578</v>
+      </c>
+      <c r="T129" t="s">
+        <v>573</v>
+      </c>
+      <c r="U129" t="s">
+        <v>574</v>
+      </c>
+      <c r="V129" t="s">
         <v>392</v>
       </c>
-      <c r="S129">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>56</v>
       </c>
@@ -10258,13 +11831,25 @@
         <v>11</v>
       </c>
       <c r="R130" t="s">
+        <v>577</v>
+      </c>
+      <c r="S130" t="s">
+        <v>578</v>
+      </c>
+      <c r="T130" t="s">
+        <v>573</v>
+      </c>
+      <c r="U130" t="s">
+        <v>574</v>
+      </c>
+      <c r="V130" t="s">
         <v>395</v>
       </c>
-      <c r="S130">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>56</v>
       </c>
@@ -10317,13 +11902,25 @@
         <v>11</v>
       </c>
       <c r="R131" t="s">
+        <v>577</v>
+      </c>
+      <c r="S131" t="s">
+        <v>578</v>
+      </c>
+      <c r="T131" t="s">
+        <v>573</v>
+      </c>
+      <c r="U131" t="s">
+        <v>574</v>
+      </c>
+      <c r="V131" t="s">
         <v>398</v>
       </c>
-      <c r="S131">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>56</v>
       </c>
@@ -10375,11 +11972,23 @@
       <c r="Q132" t="s">
         <v>11</v>
       </c>
-      <c r="S132">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>577</v>
+      </c>
+      <c r="S132" t="s">
+        <v>578</v>
+      </c>
+      <c r="T132" t="s">
+        <v>573</v>
+      </c>
+      <c r="U132" t="s">
+        <v>574</v>
+      </c>
+      <c r="W132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>56</v>
       </c>
@@ -10432,13 +12041,25 @@
         <v>11</v>
       </c>
       <c r="R133" t="s">
+        <v>577</v>
+      </c>
+      <c r="S133" t="s">
+        <v>578</v>
+      </c>
+      <c r="T133" t="s">
+        <v>573</v>
+      </c>
+      <c r="U133" t="s">
+        <v>574</v>
+      </c>
+      <c r="V133" t="s">
         <v>403</v>
       </c>
-      <c r="S133">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>56</v>
       </c>
@@ -10491,13 +12112,25 @@
         <v>11</v>
       </c>
       <c r="R134" t="s">
+        <v>577</v>
+      </c>
+      <c r="S134" t="s">
+        <v>578</v>
+      </c>
+      <c r="T134" t="s">
+        <v>573</v>
+      </c>
+      <c r="U134" t="s">
+        <v>574</v>
+      </c>
+      <c r="V134" t="s">
         <v>406</v>
       </c>
-      <c r="S134">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>56</v>
       </c>
@@ -10550,13 +12183,25 @@
         <v>11</v>
       </c>
       <c r="R135" t="s">
+        <v>577</v>
+      </c>
+      <c r="S135" t="s">
+        <v>578</v>
+      </c>
+      <c r="T135" t="s">
+        <v>573</v>
+      </c>
+      <c r="U135" t="s">
+        <v>574</v>
+      </c>
+      <c r="V135" t="s">
         <v>409</v>
       </c>
-      <c r="S135">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>56</v>
       </c>
@@ -10609,13 +12254,25 @@
         <v>11</v>
       </c>
       <c r="R136" t="s">
+        <v>577</v>
+      </c>
+      <c r="S136" t="s">
+        <v>578</v>
+      </c>
+      <c r="T136" t="s">
+        <v>573</v>
+      </c>
+      <c r="U136" t="s">
+        <v>574</v>
+      </c>
+      <c r="V136" t="s">
         <v>412</v>
       </c>
-      <c r="S136">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>56</v>
       </c>
@@ -10668,13 +12325,25 @@
         <v>11</v>
       </c>
       <c r="R137" t="s">
+        <v>577</v>
+      </c>
+      <c r="S137" t="s">
+        <v>578</v>
+      </c>
+      <c r="T137" t="s">
+        <v>573</v>
+      </c>
+      <c r="U137" t="s">
+        <v>574</v>
+      </c>
+      <c r="V137" t="s">
         <v>395</v>
       </c>
-      <c r="S137">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>56</v>
       </c>
@@ -10727,13 +12396,25 @@
         <v>11</v>
       </c>
       <c r="R138" t="s">
+        <v>577</v>
+      </c>
+      <c r="S138" t="s">
+        <v>578</v>
+      </c>
+      <c r="T138" t="s">
+        <v>573</v>
+      </c>
+      <c r="U138" t="s">
+        <v>574</v>
+      </c>
+      <c r="V138" t="s">
         <v>417</v>
       </c>
-      <c r="S138">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W138">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>56</v>
       </c>
@@ -10786,13 +12467,25 @@
         <v>11</v>
       </c>
       <c r="R139" t="s">
+        <v>577</v>
+      </c>
+      <c r="S139" t="s">
+        <v>578</v>
+      </c>
+      <c r="T139" t="s">
+        <v>573</v>
+      </c>
+      <c r="U139" t="s">
+        <v>574</v>
+      </c>
+      <c r="V139" t="s">
         <v>420</v>
       </c>
-      <c r="S139">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56</v>
       </c>
@@ -10845,13 +12538,25 @@
         <v>11</v>
       </c>
       <c r="R140" t="s">
+        <v>577</v>
+      </c>
+      <c r="S140" t="s">
+        <v>578</v>
+      </c>
+      <c r="T140" t="s">
+        <v>573</v>
+      </c>
+      <c r="U140" t="s">
+        <v>574</v>
+      </c>
+      <c r="V140" t="s">
         <v>423</v>
       </c>
-      <c r="S140">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -10904,13 +12609,25 @@
         <v>11</v>
       </c>
       <c r="R141" t="s">
+        <v>577</v>
+      </c>
+      <c r="S141" t="s">
+        <v>578</v>
+      </c>
+      <c r="T141" t="s">
+        <v>573</v>
+      </c>
+      <c r="U141" t="s">
+        <v>574</v>
+      </c>
+      <c r="V141" t="s">
         <v>426</v>
       </c>
-      <c r="S141">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>56</v>
       </c>
@@ -10963,13 +12680,25 @@
         <v>11</v>
       </c>
       <c r="R142" t="s">
+        <v>577</v>
+      </c>
+      <c r="S142" t="s">
+        <v>578</v>
+      </c>
+      <c r="T142" t="s">
+        <v>573</v>
+      </c>
+      <c r="U142" t="s">
+        <v>574</v>
+      </c>
+      <c r="V142" t="s">
         <v>429</v>
       </c>
-      <c r="S142">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>56</v>
       </c>
@@ -11021,11 +12750,23 @@
       <c r="Q143" t="s">
         <v>11</v>
       </c>
-      <c r="S143">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R143" t="s">
+        <v>577</v>
+      </c>
+      <c r="S143" t="s">
+        <v>578</v>
+      </c>
+      <c r="T143" t="s">
+        <v>573</v>
+      </c>
+      <c r="U143" t="s">
+        <v>574</v>
+      </c>
+      <c r="W143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>56</v>
       </c>
@@ -11078,13 +12819,25 @@
         <v>11</v>
       </c>
       <c r="R144" t="s">
+        <v>577</v>
+      </c>
+      <c r="S144" t="s">
+        <v>578</v>
+      </c>
+      <c r="T144" t="s">
+        <v>573</v>
+      </c>
+      <c r="U144" t="s">
+        <v>574</v>
+      </c>
+      <c r="V144" t="s">
         <v>434</v>
       </c>
-      <c r="S144">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -11137,13 +12890,25 @@
         <v>11</v>
       </c>
       <c r="R145" t="s">
+        <v>577</v>
+      </c>
+      <c r="S145" t="s">
+        <v>578</v>
+      </c>
+      <c r="T145" t="s">
+        <v>573</v>
+      </c>
+      <c r="U145" t="s">
+        <v>574</v>
+      </c>
+      <c r="V145" t="s">
         <v>437</v>
       </c>
-      <c r="S145">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -11196,13 +12961,25 @@
         <v>11</v>
       </c>
       <c r="R146" t="s">
+        <v>577</v>
+      </c>
+      <c r="S146" t="s">
+        <v>578</v>
+      </c>
+      <c r="T146" t="s">
+        <v>573</v>
+      </c>
+      <c r="U146" t="s">
+        <v>574</v>
+      </c>
+      <c r="V146" t="s">
         <v>440</v>
       </c>
-      <c r="S146">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>56</v>
       </c>
@@ -11255,13 +13032,25 @@
         <v>11</v>
       </c>
       <c r="R147" t="s">
+        <v>577</v>
+      </c>
+      <c r="S147" t="s">
+        <v>578</v>
+      </c>
+      <c r="T147" t="s">
+        <v>573</v>
+      </c>
+      <c r="U147" t="s">
+        <v>574</v>
+      </c>
+      <c r="V147" t="s">
         <v>443</v>
       </c>
-      <c r="S147">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>56</v>
       </c>
@@ -11314,13 +13103,25 @@
         <v>11</v>
       </c>
       <c r="R148" t="s">
+        <v>577</v>
+      </c>
+      <c r="S148" t="s">
+        <v>578</v>
+      </c>
+      <c r="T148" t="s">
+        <v>573</v>
+      </c>
+      <c r="U148" t="s">
+        <v>574</v>
+      </c>
+      <c r="V148" t="s">
         <v>446</v>
       </c>
-      <c r="S148">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>56</v>
       </c>
@@ -11373,13 +13174,25 @@
         <v>11</v>
       </c>
       <c r="R149" t="s">
+        <v>577</v>
+      </c>
+      <c r="S149" t="s">
+        <v>578</v>
+      </c>
+      <c r="T149" t="s">
+        <v>573</v>
+      </c>
+      <c r="U149" t="s">
+        <v>574</v>
+      </c>
+      <c r="V149" t="s">
         <v>449</v>
       </c>
-      <c r="S149">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>56</v>
       </c>
@@ -11432,13 +13245,25 @@
         <v>11</v>
       </c>
       <c r="R150" t="s">
+        <v>577</v>
+      </c>
+      <c r="S150" t="s">
+        <v>578</v>
+      </c>
+      <c r="T150" t="s">
+        <v>573</v>
+      </c>
+      <c r="U150" t="s">
+        <v>574</v>
+      </c>
+      <c r="V150" t="s">
         <v>452</v>
       </c>
-      <c r="S150">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>56</v>
       </c>
@@ -11491,13 +13316,25 @@
         <v>11</v>
       </c>
       <c r="R151" t="s">
+        <v>577</v>
+      </c>
+      <c r="S151" t="s">
+        <v>578</v>
+      </c>
+      <c r="T151" t="s">
+        <v>573</v>
+      </c>
+      <c r="U151" t="s">
+        <v>574</v>
+      </c>
+      <c r="V151" t="s">
         <v>455</v>
       </c>
-      <c r="S151">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>56</v>
       </c>
@@ -11550,13 +13387,25 @@
         <v>11</v>
       </c>
       <c r="R152" t="s">
+        <v>577</v>
+      </c>
+      <c r="S152" t="s">
+        <v>578</v>
+      </c>
+      <c r="T152" t="s">
+        <v>573</v>
+      </c>
+      <c r="U152" t="s">
+        <v>574</v>
+      </c>
+      <c r="V152" t="s">
         <v>458</v>
       </c>
-      <c r="S152">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>56</v>
       </c>
@@ -11609,13 +13458,25 @@
         <v>11</v>
       </c>
       <c r="R153" t="s">
+        <v>577</v>
+      </c>
+      <c r="S153" t="s">
+        <v>578</v>
+      </c>
+      <c r="T153" t="s">
+        <v>573</v>
+      </c>
+      <c r="U153" t="s">
+        <v>574</v>
+      </c>
+      <c r="V153" t="s">
         <v>461</v>
       </c>
-      <c r="S153">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>56</v>
       </c>
@@ -11668,13 +13529,25 @@
         <v>11</v>
       </c>
       <c r="R154" t="s">
+        <v>577</v>
+      </c>
+      <c r="S154" t="s">
+        <v>578</v>
+      </c>
+      <c r="T154" t="s">
+        <v>573</v>
+      </c>
+      <c r="U154" t="s">
+        <v>574</v>
+      </c>
+      <c r="V154" t="s">
         <v>464</v>
       </c>
-      <c r="S154">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>56</v>
       </c>
@@ -11727,13 +13600,25 @@
         <v>11</v>
       </c>
       <c r="R155" t="s">
+        <v>577</v>
+      </c>
+      <c r="S155" t="s">
+        <v>578</v>
+      </c>
+      <c r="T155" t="s">
+        <v>573</v>
+      </c>
+      <c r="U155" t="s">
+        <v>574</v>
+      </c>
+      <c r="V155" t="s">
         <v>467</v>
       </c>
-      <c r="S155">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>56</v>
       </c>
@@ -11786,13 +13671,25 @@
         <v>11</v>
       </c>
       <c r="R156" t="s">
+        <v>577</v>
+      </c>
+      <c r="S156" t="s">
+        <v>578</v>
+      </c>
+      <c r="T156" t="s">
+        <v>573</v>
+      </c>
+      <c r="U156" t="s">
+        <v>574</v>
+      </c>
+      <c r="V156" t="s">
         <v>470</v>
       </c>
-      <c r="S156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>56</v>
       </c>
@@ -11845,13 +13742,25 @@
         <v>11</v>
       </c>
       <c r="R157" t="s">
+        <v>577</v>
+      </c>
+      <c r="S157" t="s">
+        <v>578</v>
+      </c>
+      <c r="T157" t="s">
+        <v>573</v>
+      </c>
+      <c r="U157" t="s">
+        <v>574</v>
+      </c>
+      <c r="V157" t="s">
         <v>473</v>
       </c>
-      <c r="S157">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>56</v>
       </c>
@@ -11903,11 +13812,23 @@
       <c r="Q158" t="s">
         <v>11</v>
       </c>
-      <c r="S158">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R158" t="s">
+        <v>577</v>
+      </c>
+      <c r="S158" t="s">
+        <v>578</v>
+      </c>
+      <c r="T158" t="s">
+        <v>573</v>
+      </c>
+      <c r="U158" t="s">
+        <v>574</v>
+      </c>
+      <c r="W158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>56</v>
       </c>
@@ -11960,13 +13881,25 @@
         <v>11</v>
       </c>
       <c r="R159" t="s">
+        <v>577</v>
+      </c>
+      <c r="S159" t="s">
+        <v>578</v>
+      </c>
+      <c r="T159" t="s">
+        <v>573</v>
+      </c>
+      <c r="U159" t="s">
+        <v>574</v>
+      </c>
+      <c r="V159" t="s">
         <v>478</v>
       </c>
-      <c r="S159">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>56</v>
       </c>
@@ -12019,13 +13952,25 @@
         <v>11</v>
       </c>
       <c r="R160" t="s">
+        <v>577</v>
+      </c>
+      <c r="S160" t="s">
+        <v>578</v>
+      </c>
+      <c r="T160" t="s">
+        <v>573</v>
+      </c>
+      <c r="U160" t="s">
+        <v>574</v>
+      </c>
+      <c r="V160" t="s">
         <v>481</v>
       </c>
-      <c r="S160">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>56</v>
       </c>
@@ -12078,13 +14023,25 @@
         <v>11</v>
       </c>
       <c r="R161" t="s">
+        <v>577</v>
+      </c>
+      <c r="S161" t="s">
+        <v>578</v>
+      </c>
+      <c r="T161" t="s">
+        <v>573</v>
+      </c>
+      <c r="U161" t="s">
+        <v>574</v>
+      </c>
+      <c r="V161" t="s">
         <v>481</v>
       </c>
-      <c r="S161">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>56</v>
       </c>
@@ -12137,13 +14094,25 @@
         <v>11</v>
       </c>
       <c r="R162" t="s">
+        <v>577</v>
+      </c>
+      <c r="S162" t="s">
+        <v>578</v>
+      </c>
+      <c r="T162" t="s">
+        <v>573</v>
+      </c>
+      <c r="U162" t="s">
+        <v>574</v>
+      </c>
+      <c r="V162" t="s">
         <v>486</v>
       </c>
-      <c r="S162">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>56</v>
       </c>
@@ -12196,13 +14165,25 @@
         <v>11</v>
       </c>
       <c r="R163" t="s">
+        <v>577</v>
+      </c>
+      <c r="S163" t="s">
+        <v>578</v>
+      </c>
+      <c r="T163" t="s">
+        <v>573</v>
+      </c>
+      <c r="U163" t="s">
+        <v>574</v>
+      </c>
+      <c r="V163" t="s">
         <v>489</v>
       </c>
-      <c r="S163">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>56</v>
       </c>
@@ -12255,13 +14236,25 @@
         <v>11</v>
       </c>
       <c r="R164" t="s">
+        <v>577</v>
+      </c>
+      <c r="S164" t="s">
+        <v>578</v>
+      </c>
+      <c r="T164" t="s">
+        <v>573</v>
+      </c>
+      <c r="U164" t="s">
+        <v>574</v>
+      </c>
+      <c r="V164" t="s">
         <v>492</v>
       </c>
-      <c r="S164">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>56</v>
       </c>
@@ -12313,11 +14306,23 @@
       <c r="Q165" t="s">
         <v>11</v>
       </c>
-      <c r="S165">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R165" t="s">
+        <v>577</v>
+      </c>
+      <c r="S165" t="s">
+        <v>578</v>
+      </c>
+      <c r="T165" t="s">
+        <v>573</v>
+      </c>
+      <c r="U165" t="s">
+        <v>574</v>
+      </c>
+      <c r="W165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>56</v>
       </c>
@@ -12370,13 +14375,25 @@
         <v>11</v>
       </c>
       <c r="R166" t="s">
+        <v>577</v>
+      </c>
+      <c r="S166" t="s">
+        <v>578</v>
+      </c>
+      <c r="T166" t="s">
+        <v>573</v>
+      </c>
+      <c r="U166" t="s">
+        <v>574</v>
+      </c>
+      <c r="V166" t="s">
         <v>497</v>
       </c>
-      <c r="S166">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>56</v>
       </c>
@@ -12429,13 +14446,25 @@
         <v>11</v>
       </c>
       <c r="R167" t="s">
+        <v>577</v>
+      </c>
+      <c r="S167" t="s">
+        <v>578</v>
+      </c>
+      <c r="T167" t="s">
+        <v>573</v>
+      </c>
+      <c r="U167" t="s">
+        <v>574</v>
+      </c>
+      <c r="V167" t="s">
         <v>500</v>
       </c>
-      <c r="S167">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>56</v>
       </c>
@@ -12488,13 +14517,25 @@
         <v>11</v>
       </c>
       <c r="R168" t="s">
+        <v>577</v>
+      </c>
+      <c r="S168" t="s">
+        <v>578</v>
+      </c>
+      <c r="T168" t="s">
+        <v>573</v>
+      </c>
+      <c r="U168" t="s">
+        <v>574</v>
+      </c>
+      <c r="V168" t="s">
         <v>503</v>
       </c>
-      <c r="S168">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>56</v>
       </c>
@@ -12547,13 +14588,25 @@
         <v>11</v>
       </c>
       <c r="R169" t="s">
+        <v>577</v>
+      </c>
+      <c r="S169" t="s">
+        <v>578</v>
+      </c>
+      <c r="T169" t="s">
+        <v>573</v>
+      </c>
+      <c r="U169" t="s">
+        <v>574</v>
+      </c>
+      <c r="V169" t="s">
         <v>506</v>
       </c>
-      <c r="S169">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>56</v>
       </c>
@@ -12605,11 +14658,23 @@
       <c r="Q170" t="s">
         <v>11</v>
       </c>
-      <c r="S170">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R170" t="s">
+        <v>577</v>
+      </c>
+      <c r="S170" t="s">
+        <v>578</v>
+      </c>
+      <c r="T170" t="s">
+        <v>573</v>
+      </c>
+      <c r="U170" t="s">
+        <v>574</v>
+      </c>
+      <c r="W170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>56</v>
       </c>
@@ -12662,13 +14727,25 @@
         <v>11</v>
       </c>
       <c r="R171" t="s">
+        <v>577</v>
+      </c>
+      <c r="S171" t="s">
+        <v>578</v>
+      </c>
+      <c r="T171" t="s">
+        <v>573</v>
+      </c>
+      <c r="U171" t="s">
+        <v>574</v>
+      </c>
+      <c r="V171" t="s">
         <v>511</v>
       </c>
-      <c r="S171">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>56</v>
       </c>
@@ -12721,13 +14798,25 @@
         <v>11</v>
       </c>
       <c r="R172" t="s">
+        <v>577</v>
+      </c>
+      <c r="S172" t="s">
+        <v>578</v>
+      </c>
+      <c r="T172" t="s">
+        <v>573</v>
+      </c>
+      <c r="U172" t="s">
+        <v>574</v>
+      </c>
+      <c r="V172" t="s">
         <v>514</v>
       </c>
-      <c r="S172">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>56</v>
       </c>
@@ -12780,13 +14869,25 @@
         <v>11</v>
       </c>
       <c r="R173" t="s">
+        <v>577</v>
+      </c>
+      <c r="S173" t="s">
+        <v>578</v>
+      </c>
+      <c r="T173" t="s">
+        <v>573</v>
+      </c>
+      <c r="U173" t="s">
+        <v>574</v>
+      </c>
+      <c r="V173" t="s">
         <v>517</v>
       </c>
-      <c r="S173">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>56</v>
       </c>
@@ -12839,13 +14940,25 @@
         <v>11</v>
       </c>
       <c r="R174" t="s">
+        <v>577</v>
+      </c>
+      <c r="S174" t="s">
+        <v>578</v>
+      </c>
+      <c r="T174" t="s">
+        <v>573</v>
+      </c>
+      <c r="U174" t="s">
+        <v>574</v>
+      </c>
+      <c r="V174" t="s">
         <v>520</v>
       </c>
-      <c r="S174">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>56</v>
       </c>
@@ -12898,13 +15011,25 @@
         <v>11</v>
       </c>
       <c r="R175" t="s">
+        <v>577</v>
+      </c>
+      <c r="S175" t="s">
+        <v>578</v>
+      </c>
+      <c r="T175" t="s">
+        <v>573</v>
+      </c>
+      <c r="U175" t="s">
+        <v>574</v>
+      </c>
+      <c r="V175" t="s">
         <v>523</v>
       </c>
-      <c r="S175">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>56</v>
       </c>
@@ -12957,13 +15082,25 @@
         <v>11</v>
       </c>
       <c r="R176" t="s">
+        <v>577</v>
+      </c>
+      <c r="S176" t="s">
+        <v>578</v>
+      </c>
+      <c r="T176" t="s">
+        <v>573</v>
+      </c>
+      <c r="U176" t="s">
+        <v>574</v>
+      </c>
+      <c r="V176" t="s">
         <v>526</v>
       </c>
-      <c r="S176">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W176">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>56</v>
       </c>
@@ -13016,13 +15153,25 @@
         <v>11</v>
       </c>
       <c r="R177" t="s">
+        <v>577</v>
+      </c>
+      <c r="S177" t="s">
+        <v>578</v>
+      </c>
+      <c r="T177" t="s">
+        <v>573</v>
+      </c>
+      <c r="U177" t="s">
+        <v>574</v>
+      </c>
+      <c r="V177" t="s">
         <v>529</v>
       </c>
-      <c r="S177">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W177">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>56</v>
       </c>
@@ -13075,13 +15224,25 @@
         <v>11</v>
       </c>
       <c r="R178" t="s">
+        <v>577</v>
+      </c>
+      <c r="S178" t="s">
+        <v>578</v>
+      </c>
+      <c r="T178" t="s">
+        <v>573</v>
+      </c>
+      <c r="U178" t="s">
+        <v>574</v>
+      </c>
+      <c r="V178" t="s">
         <v>532</v>
       </c>
-      <c r="S178">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W178">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
@@ -13134,13 +15295,25 @@
         <v>11</v>
       </c>
       <c r="R179" t="s">
+        <v>577</v>
+      </c>
+      <c r="S179" t="s">
+        <v>578</v>
+      </c>
+      <c r="T179" t="s">
+        <v>573</v>
+      </c>
+      <c r="U179" t="s">
+        <v>574</v>
+      </c>
+      <c r="V179" t="s">
         <v>535</v>
       </c>
-      <c r="S179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>56</v>
       </c>
@@ -13193,13 +15366,25 @@
         <v>11</v>
       </c>
       <c r="R180" t="s">
+        <v>577</v>
+      </c>
+      <c r="S180" t="s">
+        <v>578</v>
+      </c>
+      <c r="T180" t="s">
+        <v>573</v>
+      </c>
+      <c r="U180" t="s">
+        <v>574</v>
+      </c>
+      <c r="V180" t="s">
         <v>538</v>
       </c>
-      <c r="S180">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W180">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>56</v>
       </c>
@@ -13252,13 +15437,25 @@
         <v>11</v>
       </c>
       <c r="R181" t="s">
+        <v>577</v>
+      </c>
+      <c r="S181" t="s">
+        <v>578</v>
+      </c>
+      <c r="T181" t="s">
+        <v>573</v>
+      </c>
+      <c r="U181" t="s">
+        <v>574</v>
+      </c>
+      <c r="V181" t="s">
         <v>541</v>
       </c>
-      <c r="S181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>56</v>
       </c>
@@ -13311,13 +15508,25 @@
         <v>11</v>
       </c>
       <c r="R182" t="s">
+        <v>577</v>
+      </c>
+      <c r="S182" t="s">
+        <v>578</v>
+      </c>
+      <c r="T182" t="s">
+        <v>573</v>
+      </c>
+      <c r="U182" t="s">
+        <v>574</v>
+      </c>
+      <c r="V182" t="s">
         <v>544</v>
       </c>
-      <c r="S182">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>56</v>
       </c>
@@ -13370,13 +15579,25 @@
         <v>11</v>
       </c>
       <c r="R183" t="s">
+        <v>577</v>
+      </c>
+      <c r="S183" t="s">
+        <v>578</v>
+      </c>
+      <c r="T183" t="s">
+        <v>573</v>
+      </c>
+      <c r="U183" t="s">
+        <v>574</v>
+      </c>
+      <c r="V183" t="s">
         <v>547</v>
       </c>
-      <c r="S183">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>56</v>
       </c>
@@ -13428,11 +15649,23 @@
       <c r="Q184" t="s">
         <v>11</v>
       </c>
-      <c r="S184">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R184" t="s">
+        <v>577</v>
+      </c>
+      <c r="S184" t="s">
+        <v>578</v>
+      </c>
+      <c r="T184" t="s">
+        <v>573</v>
+      </c>
+      <c r="U184" t="s">
+        <v>574</v>
+      </c>
+      <c r="W184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>56</v>
       </c>
@@ -13485,13 +15718,25 @@
         <v>11</v>
       </c>
       <c r="R185" t="s">
+        <v>577</v>
+      </c>
+      <c r="S185" t="s">
+        <v>578</v>
+      </c>
+      <c r="T185" t="s">
+        <v>573</v>
+      </c>
+      <c r="U185" t="s">
+        <v>574</v>
+      </c>
+      <c r="V185" t="s">
         <v>552</v>
       </c>
-      <c r="S185">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>56</v>
       </c>
@@ -13544,19 +15789,48 @@
         <v>11</v>
       </c>
       <c r="R186" t="s">
+        <v>577</v>
+      </c>
+      <c r="S186" t="s">
+        <v>578</v>
+      </c>
+      <c r="T186" t="s">
+        <v>573</v>
+      </c>
+      <c r="U186" t="s">
+        <v>574</v>
+      </c>
+      <c r="V186" t="s">
         <v>556</v>
       </c>
-      <c r="S186">
+      <c r="W186">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S186" xr:uid="{4DF835AF-9785-4F20-863A-E8A2E12951BA}"/>
+  <autoFilter ref="A1:W186" xr:uid="{4DF835AF-9785-4F20-863A-E8A2E12951BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -13779,24 +16053,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E85DE3-6E3F-4ECF-8581-5BE0D668497E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FCE89C0-01AF-4662-A7B1-CB3A9B349166}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E07A08-8057-4C53-81FD-F7CA2F31E139}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13813,22 +16088,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FCE89C0-01AF-4662-A7B1-CB3A9B349166}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E85DE3-6E3F-4ECF-8581-5BE0D668497E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>